--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\PROJETOS\APP\Códigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6B456C-8346-461E-B828-84FA0C0A034F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC64702-5FD4-4B62-B29B-1EC8780115D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="232">
   <si>
     <t>Complemento</t>
   </si>
@@ -551,18 +551,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>FITA CETIM - AMARELO</t>
-  </si>
-  <si>
-    <t>S150203</t>
-  </si>
-  <si>
-    <t>FITA CETIM - AZUL</t>
-  </si>
-  <si>
-    <t>FITA CETIM - ROSA</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -677,9 +665,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>VASSOURA DE PELO SINTETICO</t>
-  </si>
-  <si>
     <t>S110036</t>
   </si>
   <si>
@@ -687,6 +672,69 @@
   </si>
   <si>
     <t>S010040</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
+  </si>
+  <si>
+    <t>S050008</t>
+  </si>
+  <si>
+    <t>UM.</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>PC C/10</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC C/8</t>
+  </si>
+  <si>
+    <t>PC C/100</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PELO SINTETICO - PLASTICO</t>
+  </si>
+  <si>
+    <t>ADOÇANTE - 100ML</t>
+  </si>
+  <si>
+    <t>S030004</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - UNICA</t>
+  </si>
+  <si>
+    <t>S020048</t>
+  </si>
+  <si>
+    <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S150037</t>
+  </si>
+  <si>
+    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S020008</t>
   </si>
 </sst>
 </file>
@@ -769,7 +817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -783,12 +831,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -814,15 +901,6 @@
         <top/>
         <bottom style="thin">
           <color rgb="FF00B0F0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1138,1302 +1216,1702 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D5" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D6" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D7" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D12" s="4">
         <v>831</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D13" s="4">
         <v>809</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D14" s="4">
         <v>1046</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D15" s="4">
         <v>1045</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D16" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D17" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D18" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D19" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D20" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D21" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D24" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D25" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D28" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D29" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B30" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D30" s="4">
         <v>904</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B31" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B32" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D32" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D33" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B34" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D34" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D35" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B36" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D36" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B37" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D37" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B39" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D39" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B40" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D40" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B41" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B42" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B43" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D43" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D44" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B45" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D45" s="4">
         <v>899</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B46" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D46" s="4">
         <v>896</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B47" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D47" s="4">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B48" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D48" s="4">
         <v>898</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B50" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D50" s="4">
         <v>471</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B51" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D51" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B52" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D52" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B53" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="D53" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="4">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="4">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="B70" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="4">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="4">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" s="4">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="4">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="4">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" s="4">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D101" s="4">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D102" s="4">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" s="4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D104" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D105" s="4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D106" s="4">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D108" s="4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D109" s="4">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D114" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D116" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D117" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="4">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="4">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C77" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="4">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80" s="4">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" s="4">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C83" s="4">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C85" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" s="4">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C91" s="4">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C95" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C96" s="4">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" s="4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C98" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C99" s="4">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100" s="4">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C101" s="4">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C103" s="4">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C104" s="4">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C105" s="4">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" s="4">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" s="4">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C111" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C113" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C114" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C88" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C88">
-      <sortCondition ref="A1:A88"/>
+  <autoFilter ref="A1:D117" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D90">
+      <sortCondition ref="A1:A90"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(A114))&gt;0</formula>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C82 A84:C114">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A2:D2 A4:D25 A27:D48 A50:D75 A77:D111 A113:D117">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83:C83">
+  <conditionalFormatting sqref="A3:D3">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:D26">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A26))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:D49">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A49))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:D76">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A76))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112:D112">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A83))&gt;0</formula>
+      <formula>LEN(TRIM(A112))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="C84:C114 C7:C82" numberStoredAsText="1"/>
+    <ignoredError sqref="D113:D117 D86:D111 D55:D75 D27:D48 D8:D25 D50:D53 D77:D84 D1:D7 D85 D54 D26 D49 D76 D112" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC64702-5FD4-4B62-B29B-1EC8780115D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C0D62A-1DB8-43C9-B3F0-E25F21EB7C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="237">
   <si>
     <t>Complemento</t>
   </si>
@@ -392,12 +392,6 @@
     <t>S030001</t>
   </si>
   <si>
-    <t>BOM AR - 360ML</t>
-  </si>
-  <si>
-    <t>S010066</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
@@ -491,15 +485,6 @@
     <t>122</t>
   </si>
   <si>
-    <t>BAND-AID - 500 UND</t>
-  </si>
-  <si>
-    <t>S150156</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
     <t>BISCOITO - ROSQUINHA</t>
   </si>
   <si>
@@ -735,6 +720,36 @@
   </si>
   <si>
     <t>S020008</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
+  </si>
+  <si>
+    <t>S150189</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
+  </si>
+  <si>
+    <t>S010012</t>
+  </si>
+  <si>
+    <t>MOP PO REFIL - UNICA</t>
+  </si>
+  <si>
+    <t>S010076</t>
+  </si>
+  <si>
+    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S010034</t>
+  </si>
+  <si>
+    <t>KIT MOP UMIDO - UNICA</t>
+  </si>
+  <si>
+    <t>S010086</t>
   </si>
 </sst>
 </file>
@@ -817,7 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -834,48 +849,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -920,9 +902,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -960,7 +942,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1066,7 +1048,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1208,7 +1190,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1216,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1249,7 +1231,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>116</v>
@@ -1260,27 +1242,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -1291,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1305,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1316,13 +1298,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1330,380 +1312,380 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="D11" s="4">
+        <v>831</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4">
-        <v>831</v>
+        <v>809</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4">
-        <v>809</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="4">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" s="4">
-        <v>1045</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D18" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4">
-        <v>20</v>
+        <v>153</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>146</v>
+        <v>20</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D26" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>904</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="4">
-        <v>52</v>
+        <v>127</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="D30" s="4">
-        <v>904</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>160</v>
+        <v>28</v>
+      </c>
+      <c r="D31" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="4">
-        <v>109</v>
+        <v>228</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="4">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="D34" s="4">
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1711,7 +1693,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>31</v>
@@ -1722,13 +1704,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1739,7 +1721,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1750,16 +1732,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,7 +1749,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1781,7 +1763,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -1792,16 +1774,16 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,13 +1791,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1823,7 +1805,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>41</v>
@@ -1837,7 +1819,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1851,7 +1833,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1865,7 +1847,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>45</v>
@@ -1879,7 +1861,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>45</v>
@@ -1893,7 +1875,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>45</v>
@@ -1904,27 +1886,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1935,7 +1917,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>50</v>
@@ -1949,7 +1931,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1960,27 +1942,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1991,7 +1973,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>53</v>
@@ -2005,7 +1987,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
@@ -2019,7 +2001,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>57</v>
@@ -2030,13 +2012,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -2044,13 +2026,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -2058,13 +2040,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2072,41 +2054,41 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="D61" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D62" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D63" s="4">
         <v>103</v>
@@ -2114,223 +2096,223 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D65" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D66" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D67" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D68" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="D69" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>173</v>
+        <v>131</v>
+      </c>
+      <c r="D70" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D71" s="4">
-        <v>31</v>
+        <v>131</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="D72" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>175</v>
+      <c r="D73" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" s="4">
-        <v>211</v>
+        <v>224</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>180</v>
+        <v>232</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2338,580 +2320,602 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>146</v>
+        <v>79</v>
+      </c>
+      <c r="D80" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="4">
-        <v>820</v>
+        <v>174</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D82" s="4">
-        <v>819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D84" s="4">
-        <v>553</v>
+        <v>820</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>209</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="D85" s="4">
-        <v>433</v>
+        <v>819</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D86" s="4">
-        <v>72</v>
+        <v>85</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D87" s="4">
-        <v>86</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="D88" s="4">
-        <v>87</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>187</v>
+        <v>88</v>
+      </c>
+      <c r="D89" s="4">
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D90" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D91" s="4">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D92" s="4">
-        <v>994</v>
+        <v>90</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D93" s="4">
-        <v>695</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>146</v>
+        <v>92</v>
+      </c>
+      <c r="D94" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D95" s="4">
-        <v>1</v>
+        <v>994</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>146</v>
+        <v>94</v>
+      </c>
+      <c r="D96" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D97" s="4">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="D98" s="4">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D99" s="4">
-        <v>53</v>
+        <v>188</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D100" s="4">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="D101" s="4">
-        <v>918</v>
+        <v>884</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="D102" s="4">
-        <v>747</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="D103" s="4">
-        <v>449</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="D104" s="4">
-        <v>170</v>
+        <v>918</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="D105" s="4">
-        <v>163</v>
+        <v>747</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="D106" s="4">
-        <v>799</v>
+        <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D107" s="4">
-        <v>1127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D108" s="4">
-        <v>569</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D109" s="4">
-        <v>762</v>
+        <v>799</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D110" s="4">
-        <v>211</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>146</v>
+        <v>108</v>
+      </c>
+      <c r="D111" s="4">
+        <v>569</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>146</v>
+        <v>108</v>
+      </c>
+      <c r="D112" s="4">
+        <v>762</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>143</v>
+        <v>112</v>
+      </c>
+      <c r="D113" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D114" s="4">
-        <v>1</v>
+        <v>197</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D116" s="4">
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D117" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D90">
-      <sortCondition ref="A1:A90"/>
+  <autoFilter ref="A1:D120" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D120">
+      <sortCondition ref="A1:A120"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2 A4:D25 A27:D48 A50:D75 A77:D111 A113:D117">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="A2:D57 A59:D120">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D3">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:D26">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A26))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:D49">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A49))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76:D76">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A76))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112:D112">
+  <conditionalFormatting sqref="A58:D58">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A112))&gt;0</formula>
+      <formula>LEN(TRIM(A58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D113:D117 D86:D111 D55:D75 D27:D48 D8:D25 D50:D53 D77:D84 D1:D7 D85 D54 D26 D49 D76 D112" numberStoredAsText="1"/>
+    <ignoredError sqref="D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C0D62A-1DB8-43C9-B3F0-E25F21EB7C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E782921-676B-4AA7-A667-728E05AF8C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -467,12 +467,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>AVENTAL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010007</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -750,6 +744,12 @@
   </si>
   <si>
     <t>S010086</t>
+  </si>
+  <si>
+    <t>AVENTAL C/ MANGA - UNICA</t>
+  </si>
+  <si>
+    <t>S150204</t>
   </si>
 </sst>
 </file>
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD58"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1231,7 +1231,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>116</v>
@@ -1242,16 +1242,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,7 +1259,7 @@
         <v>124</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>125</v>
@@ -1273,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1287,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1301,7 +1301,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>123</v>
@@ -1315,7 +1315,7 @@
         <v>139</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>140</v>
@@ -1326,41 +1326,41 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="4">
         <v>831</v>
@@ -1371,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -1413,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
@@ -1427,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
@@ -1441,7 +1441,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
@@ -1455,7 +1455,7 @@
         <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>118</v>
@@ -1469,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>16</v>
@@ -1483,7 +1483,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -1494,16 +1494,16 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1525,7 +1525,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1553,7 +1553,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>23</v>
@@ -1567,7 +1567,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -1581,7 +1581,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1595,7 +1595,7 @@
         <v>126</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>127</v>
@@ -1606,24 +1606,24 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>127</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>28</v>
@@ -1637,7 +1637,7 @@
         <v>119</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
@@ -1648,13 +1648,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>29</v>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>31</v>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1732,16 +1732,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1763,7 +1763,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1791,13 +1791,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>41</v>
@@ -1819,7 +1819,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1833,7 +1833,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1847,7 +1847,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>45</v>
@@ -1861,7 +1861,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>45</v>
@@ -1875,7 +1875,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>45</v>
@@ -1886,16 +1886,16 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
         <v>120</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>121</v>
@@ -1917,7 +1917,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>50</v>
@@ -1931,7 +1931,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1942,27 +1942,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>53</v>
@@ -1987,7 +1987,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
@@ -2001,7 +2001,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>57</v>
@@ -2012,13 +2012,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -2029,7 +2029,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>59</v>
@@ -2043,7 +2043,7 @@
         <v>128</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>129</v>
@@ -2057,7 +2057,7 @@
         <v>133</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>134</v>
@@ -2071,7 +2071,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>61</v>
@@ -2085,7 +2085,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>63</v>
@@ -2099,7 +2099,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>65</v>
@@ -2113,7 +2113,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>65</v>
@@ -2127,7 +2127,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>68</v>
@@ -2141,7 +2141,7 @@
         <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>70</v>
@@ -2155,7 +2155,7 @@
         <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>72</v>
@@ -2169,7 +2169,7 @@
         <v>73</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>72</v>
@@ -2183,7 +2183,7 @@
         <v>130</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>131</v>
@@ -2194,16 +2194,16 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,7 +2211,7 @@
         <v>132</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>131</v>
@@ -2225,7 +2225,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>75</v>
@@ -2236,30 +2236,30 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,7 +2267,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>77</v>
@@ -2278,27 +2278,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2306,13 +2306,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2323,7 +2323,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>79</v>
@@ -2334,16 +2334,16 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>81</v>
@@ -2362,16 +2362,16 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2379,7 +2379,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>83</v>
@@ -2393,7 +2393,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>83</v>
@@ -2404,16 +2404,16 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2421,7 +2421,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>87</v>
@@ -2432,13 +2432,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D88" s="4">
         <v>433</v>
@@ -2446,10 +2446,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>88</v>
@@ -2463,7 +2463,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>90</v>
@@ -2477,7 +2477,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>90</v>
@@ -2488,24 +2488,24 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>92</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>92</v>
@@ -2533,7 +2533,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>94</v>
@@ -2547,7 +2547,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>94</v>
@@ -2558,16 +2558,16 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2575,7 +2575,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>97</v>
@@ -2586,16 +2586,16 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2603,7 +2603,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>99</v>
@@ -2614,13 +2614,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D101" s="4">
         <v>884</v>
@@ -2631,7 +2631,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>101</v>
@@ -2645,7 +2645,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>103</v>
@@ -2659,7 +2659,7 @@
         <v>135</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>136</v>
@@ -2670,13 +2670,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D105" s="4">
         <v>747</v>
@@ -2684,13 +2684,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D106" s="4">
         <v>449</v>
@@ -2701,7 +2701,7 @@
         <v>104</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>105</v>
@@ -2715,7 +2715,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>105</v>
@@ -2729,7 +2729,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>105</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>108</v>
@@ -2757,7 +2757,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>108</v>
@@ -2771,7 +2771,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>108</v>
@@ -2785,7 +2785,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>112</v>
@@ -2796,41 +2796,41 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>141</v>
@@ -2841,7 +2841,7 @@
         <v>137</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>138</v>
@@ -2852,27 +2852,27 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2883,7 +2883,7 @@
         <v>113</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>114</v>
@@ -2899,18 +2899,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D57 A59:D120">
+  <conditionalFormatting sqref="A2:D8 A10:D120">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:D58">
+  <conditionalFormatting sqref="A9:D9">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A58))&gt;0</formula>
+      <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E782921-676B-4AA7-A667-728E05AF8C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1949A125-53AD-467D-95EC-DB44E5E9C894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="239">
   <si>
     <t>Complemento</t>
   </si>
@@ -750,6 +750,12 @@
   </si>
   <si>
     <t>S150204</t>
+  </si>
+  <si>
+    <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>S010002</t>
   </si>
 </sst>
 </file>
@@ -1198,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,147 +1262,147 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="D5" s="4">
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
+      </c>
+      <c r="D8" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="4">
-        <v>831</v>
+        <v>144</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="D12" s="4">
-        <v>809</v>
+        <v>831</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4">
-        <v>1046</v>
+        <v>809</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>207</v>
@@ -1405,40 +1411,40 @@
         <v>9</v>
       </c>
       <c r="D14" s="4">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4">
-        <v>103</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="4">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>207</v>
@@ -1447,82 +1453,82 @@
         <v>13</v>
       </c>
       <c r="D17" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="D19" s="4">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>142</v>
+        <v>18</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2</v>
+        <v>151</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>207</v>
@@ -1531,12 +1537,12 @@
         <v>20</v>
       </c>
       <c r="D23" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>207</v>
@@ -1545,32 +1551,32 @@
         <v>20</v>
       </c>
       <c r="D24" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1578,35 +1584,35 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="D28" s="4">
-        <v>904</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>207</v>
@@ -1614,117 +1620,117 @@
       <c r="C29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>153</v>
+      <c r="D29" s="4">
+        <v>904</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="4">
-        <v>109</v>
+        <v>127</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="4">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="D32" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="4">
-        <v>105</v>
+        <v>226</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="D35" s="4">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1732,41 +1738,41 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>142</v>
+        <v>33</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -1774,55 +1780,55 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>162</v>
+        <v>37</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1830,21 +1836,21 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D45" s="4">
-        <v>899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>207</v>
@@ -1853,12 +1859,12 @@
         <v>45</v>
       </c>
       <c r="D46" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>207</v>
@@ -1867,12 +1873,12 @@
         <v>45</v>
       </c>
       <c r="D47" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>207</v>
@@ -1881,54 +1887,54 @@
         <v>45</v>
       </c>
       <c r="D48" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>142</v>
+        <v>45</v>
+      </c>
+      <c r="D49" s="4">
+        <v>898</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="4">
-        <v>471</v>
+        <v>220</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D51" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>207</v>
@@ -1937,46 +1943,46 @@
         <v>50</v>
       </c>
       <c r="D52" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>142</v>
+        <v>50</v>
+      </c>
+      <c r="D53" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1984,27 +1990,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D56" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D57" s="4">
         <v>80</v>
@@ -2012,27 +2018,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>233</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -2040,13 +2046,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2054,13 +2060,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2068,41 +2074,41 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="D62" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D64" s="4">
         <v>103</v>
@@ -2110,7 +2116,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>207</v>
@@ -2119,54 +2125,54 @@
         <v>65</v>
       </c>
       <c r="D65" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D66" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D67" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D68" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>207</v>
@@ -2175,26 +2181,26 @@
         <v>72</v>
       </c>
       <c r="D69" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="D70" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>208</v>
@@ -2202,13 +2208,13 @@
       <c r="C71" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>166</v>
+      <c r="D71" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>208</v>
@@ -2216,27 +2222,27 @@
       <c r="C72" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D72" s="4">
-        <v>31</v>
+      <c r="D72" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="D73" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>207</v>
@@ -2244,13 +2250,13 @@
       <c r="C74" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>168</v>
+      <c r="D74" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>207</v>
@@ -2259,60 +2265,60 @@
         <v>75</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>142</v>
+        <v>77</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1</v>
+        <v>222</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2320,77 +2326,77 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="D80" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>173</v>
+        <v>79</v>
+      </c>
+      <c r="D81" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="4">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>142</v>
+        <v>81</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="4">
-        <v>820</v>
+        <v>175</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>210</v>
@@ -2399,82 +2405,82 @@
         <v>83</v>
       </c>
       <c r="D85" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>177</v>
+        <v>83</v>
+      </c>
+      <c r="D86" s="4">
+        <v>819</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" s="4">
-        <v>553</v>
+        <v>85</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="D88" s="4">
-        <v>433</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="D89" s="4">
-        <v>72</v>
+        <v>433</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D90" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>207</v>
@@ -2483,12 +2489,12 @@
         <v>90</v>
       </c>
       <c r="D91" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>207</v>
@@ -2496,27 +2502,27 @@
       <c r="C92" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>180</v>
+      <c r="D92" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D93" s="4">
-        <v>55</v>
+        <v>90</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>207</v>
@@ -2525,26 +2531,26 @@
         <v>92</v>
       </c>
       <c r="D94" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D95" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>207</v>
@@ -2553,180 +2559,180 @@
         <v>94</v>
       </c>
       <c r="D96" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>142</v>
+        <v>94</v>
+      </c>
+      <c r="D97" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" s="4">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>142</v>
+        <v>97</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" s="4">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="D101" s="4">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="D102" s="4">
-        <v>53</v>
+        <v>884</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D103" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D104" s="4">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="D105" s="4">
-        <v>747</v>
+        <v>918</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D106" s="4">
-        <v>449</v>
+        <v>747</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="D107" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D108" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>207</v>
@@ -2735,26 +2741,26 @@
         <v>105</v>
       </c>
       <c r="D109" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D110" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>213</v>
@@ -2763,12 +2769,12 @@
         <v>108</v>
       </c>
       <c r="D111" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>213</v>
@@ -2777,46 +2783,46 @@
         <v>108</v>
       </c>
       <c r="D112" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D113" s="4">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="D114" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>142</v>
@@ -2824,93 +2830,107 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D117" s="4">
-        <v>1</v>
+        <v>197</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>200</v>
+        <v>138</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D119" s="4">
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D120" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D120">
-      <sortCondition ref="A1:A120"/>
+  <autoFilter ref="A1:D121" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D121">
+      <sortCondition ref="A1:A121"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D8 A10:D120">
+  <conditionalFormatting sqref="A2:D3 A5:D121">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:D9">
+  <conditionalFormatting sqref="A4:D4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A9))&gt;0</formula>
+      <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1949A125-53AD-467D-95EC-DB44E5E9C894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0EF4D1-48CE-48D4-84FE-704AD94B8FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$122</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="241">
   <si>
     <t>Complemento</t>
   </si>
@@ -756,6 +756,12 @@
   </si>
   <si>
     <t>S010002</t>
+  </si>
+  <si>
+    <t>TAPETE - UNICA</t>
+  </si>
+  <si>
+    <t>S110059</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:XFD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,41 +2808,41 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="D114" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="D115" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>142</v>
@@ -2844,93 +2850,107 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D118" s="4">
-        <v>1</v>
+        <v>197</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>200</v>
+        <v>138</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D120" s="4">
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D121" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D121">
-      <sortCondition ref="A1:A121"/>
+  <autoFilter ref="A1:D122" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D122">
+      <sortCondition ref="A1:A122"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D3 A5:D121">
+  <conditionalFormatting sqref="A2:D113 A115:D122">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4">
+  <conditionalFormatting sqref="A114:D114">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A4))&gt;0</formula>
+      <formula>LEN(TRIM(A114))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0EF4D1-48CE-48D4-84FE-704AD94B8FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875C6B8A-3B3B-4727-AD49-B9BC2E29697A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="240">
   <si>
     <t>Complemento</t>
   </si>
@@ -296,9 +296,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -569,12 +566,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
     <t>PAPEL TOALHA INTERFOLHADO - 1000 FLS</t>
   </si>
   <si>
@@ -762,6 +753,12 @@
   </si>
   <si>
     <t>S110059</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -1212,9 +1209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:XFD114"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1229,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1240,13 +1235,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1254,27 +1249,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1282,13 +1277,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1299,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1313,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1324,13 +1319,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D8" s="4">
         <v>53</v>
@@ -1338,55 +1333,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1397,7 +1392,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -1408,10 +1403,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -1422,10 +1417,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -1439,7 +1434,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -1453,7 +1448,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
@@ -1467,7 +1462,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1478,13 +1473,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
@@ -1495,7 +1490,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>16</v>
@@ -1509,7 +1504,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -1520,16 +1515,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,7 +1532,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1551,7 +1546,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1562,10 +1557,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
@@ -1579,7 +1574,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>23</v>
@@ -1593,7 +1588,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -1607,7 +1602,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1618,13 +1613,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D29" s="4">
         <v>904</v>
@@ -1632,24 +1627,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
@@ -1660,10 +1655,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>28</v>
@@ -1674,13 +1669,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1688,10 +1683,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>29</v>
@@ -1702,13 +1697,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1719,7 +1714,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>31</v>
@@ -1730,13 +1725,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1747,7 +1742,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>33</v>
@@ -1758,16 +1753,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,7 +1770,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>35</v>
@@ -1789,7 +1784,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1800,16 +1795,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,13 +1812,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,7 +1826,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>41</v>
@@ -1845,7 +1840,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>43</v>
@@ -1859,7 +1854,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>45</v>
@@ -1873,7 +1868,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>45</v>
@@ -1887,7 +1882,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>45</v>
@@ -1901,7 +1896,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>45</v>
@@ -1912,97 +1907,97 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>121</v>
+        <v>239</v>
       </c>
       <c r="D51" s="4">
-        <v>471</v>
+        <v>750</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D52" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D53" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>142</v>
+        <v>50</v>
+      </c>
+      <c r="D54" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -2010,27 +2005,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D57" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D58" s="4">
         <v>80</v>
@@ -2038,27 +2033,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>233</v>
+        <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2066,13 +2061,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2080,13 +2075,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2094,41 +2089,41 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="D63" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D64" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D65" s="4">
         <v>103</v>
@@ -2136,209 +2131,209 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D66" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D67" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D68" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D69" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D70" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="D71" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>166</v>
+        <v>130</v>
+      </c>
+      <c r="D72" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="4">
-        <v>31</v>
+        <v>130</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D74" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>168</v>
+      <c r="D75" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>142</v>
+        <v>77</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
+        <v>219</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2346,111 +2341,111 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="D81" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>173</v>
+        <v>79</v>
+      </c>
+      <c r="D82" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D83" s="4">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>142</v>
+        <v>81</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" s="4">
-        <v>820</v>
+        <v>174</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D86" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>177</v>
+        <v>83</v>
+      </c>
+      <c r="D87" s="4">
+        <v>819</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D88" s="4">
         <v>553</v>
@@ -2458,13 +2453,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D89" s="4">
         <v>433</v>
@@ -2472,13 +2467,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D90" s="4">
         <v>72</v>
@@ -2486,13 +2481,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D91" s="4">
         <v>86</v>
@@ -2500,13 +2495,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" s="4">
         <v>87</v>
@@ -2514,27 +2509,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="4">
         <v>55</v>
@@ -2542,13 +2537,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="4">
         <v>54</v>
@@ -2556,13 +2551,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D96" s="4">
         <v>994</v>
@@ -2570,13 +2565,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D97" s="4">
         <v>695</v>
@@ -2584,27 +2579,27 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2612,27 +2607,27 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2640,13 +2635,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D102" s="4">
         <v>884</v>
@@ -2654,13 +2649,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D103" s="4">
         <v>53</v>
@@ -2668,13 +2663,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D104" s="4">
         <v>107</v>
@@ -2682,13 +2677,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D105" s="4">
         <v>918</v>
@@ -2696,13 +2691,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D106" s="4">
         <v>747</v>
@@ -2710,13 +2705,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D107" s="4">
         <v>449</v>
@@ -2724,13 +2719,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D108" s="4">
         <v>170</v>
@@ -2738,13 +2733,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D109" s="4">
         <v>163</v>
@@ -2752,13 +2747,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D110" s="4">
         <v>799</v>
@@ -2766,13 +2761,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D111" s="4">
         <v>1127</v>
@@ -2780,13 +2775,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D112" s="4">
         <v>569</v>
@@ -2794,13 +2789,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D113" s="4">
         <v>762</v>
@@ -2808,13 +2803,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2822,13 +2817,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D115" s="4">
         <v>211</v>
@@ -2836,55 +2831,55 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2892,27 +2887,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2920,13 +2915,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
@@ -2939,18 +2934,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D113 A115:D122">
+  <conditionalFormatting sqref="A2:D86 A88:D122">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A114:D114">
+  <conditionalFormatting sqref="A87:D87">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A114))&gt;0</formula>
+      <formula>LEN(TRIM(A87))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875C6B8A-3B3B-4727-AD49-B9BC2E29697A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58081E15-3077-4435-9635-DE234DDC2C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>S110018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -759,6 +756,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:D44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1224,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1235,13 +1237,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1249,27 +1251,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1277,13 +1279,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1294,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1308,7 +1310,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1319,13 +1321,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D8" s="4">
         <v>53</v>
@@ -1333,55 +1335,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1392,7 +1394,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -1403,10 +1405,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -1417,10 +1419,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -1434,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -1448,7 +1450,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
@@ -1462,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1473,13 +1475,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
@@ -1490,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>16</v>
@@ -1504,7 +1506,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -1515,16 +1517,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1532,7 +1534,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1546,7 +1548,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1557,10 +1559,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
@@ -1574,7 +1576,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>23</v>
@@ -1588,7 +1590,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -1602,7 +1604,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1613,13 +1615,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D29" s="4">
         <v>904</v>
@@ -1627,24 +1629,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
@@ -1655,10 +1657,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>28</v>
@@ -1669,13 +1671,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1683,10 +1685,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>29</v>
@@ -1697,13 +1699,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1714,7 +1716,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>31</v>
@@ -1725,13 +1727,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1742,7 +1744,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>33</v>
@@ -1753,16 +1755,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,7 +1772,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>35</v>
@@ -1784,7 +1786,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1795,16 +1797,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1812,38 +1814,38 @@
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1851,13 +1853,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D46" s="4">
         <v>899</v>
@@ -1865,13 +1867,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="4">
         <v>896</v>
@@ -1879,13 +1881,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" s="4">
         <v>900</v>
@@ -1893,13 +1895,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="4">
         <v>898</v>
@@ -1907,27 +1909,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="D50" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1935,13 +1937,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D52" s="4">
         <v>471</v>
@@ -1949,13 +1951,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D53" s="4">
         <v>166</v>
@@ -1963,13 +1965,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D54" s="4">
         <v>167</v>
@@ -1977,27 +1979,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="D55" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -2005,13 +2007,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -2019,13 +2021,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D58" s="4">
         <v>80</v>
@@ -2033,13 +2035,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D59" s="4">
         <v>80</v>
@@ -2047,13 +2049,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2061,13 +2063,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2075,13 +2077,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2089,13 +2091,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -2103,13 +2105,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D64" s="4">
         <v>40</v>
@@ -2117,13 +2119,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D65" s="4">
         <v>103</v>
@@ -2131,13 +2133,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D66" s="4">
         <v>103</v>
@@ -2145,13 +2147,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" s="4">
         <v>910</v>
@@ -2159,13 +2161,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2173,13 +2175,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D69" s="4">
         <v>745</v>
@@ -2187,13 +2189,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2201,13 +2203,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2215,13 +2217,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D72" s="4">
         <v>33</v>
@@ -2229,27 +2231,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D74" s="4">
         <v>31</v>
@@ -2257,13 +2259,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D75" s="4">
         <v>2</v>
@@ -2271,41 +2273,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2313,27 +2315,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2341,13 +2343,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2355,13 +2357,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D82" s="4">
         <v>211</v>
@@ -2369,27 +2371,27 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C83" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2397,27 +2399,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D86" s="4">
         <v>820</v>
@@ -2425,13 +2427,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D87" s="4">
         <v>819</v>
@@ -2439,13 +2441,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D88" s="4">
         <v>553</v>
@@ -2453,13 +2455,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="D89" s="4">
         <v>433</v>
@@ -2467,13 +2469,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D90" s="4">
         <v>72</v>
@@ -2481,13 +2483,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D91" s="4">
         <v>86</v>
@@ -2495,13 +2497,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" s="4">
         <v>87</v>
@@ -2509,27 +2511,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="4">
         <v>55</v>
@@ -2537,13 +2539,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="4">
         <v>54</v>
@@ -2551,13 +2553,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96" s="4">
         <v>994</v>
@@ -2565,13 +2567,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D97" s="4">
         <v>695</v>
@@ -2579,27 +2581,27 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="D98" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2607,27 +2609,27 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="D100" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2635,13 +2637,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D102" s="4">
         <v>884</v>
@@ -2649,13 +2651,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D103" s="4">
         <v>53</v>
@@ -2663,13 +2665,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D104" s="4">
         <v>107</v>
@@ -2677,13 +2679,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D105" s="4">
         <v>918</v>
@@ -2691,13 +2693,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D106" s="4">
         <v>747</v>
@@ -2705,13 +2707,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="D107" s="4">
         <v>449</v>
@@ -2719,13 +2721,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D108" s="4">
         <v>170</v>
@@ -2733,13 +2735,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D109" s="4">
         <v>163</v>
@@ -2747,13 +2749,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D110" s="4">
         <v>799</v>
@@ -2761,13 +2763,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D111" s="4">
         <v>1127</v>
@@ -2775,13 +2777,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D112" s="4">
         <v>569</v>
@@ -2789,13 +2791,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D113" s="4">
         <v>762</v>
@@ -2803,13 +2805,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2817,13 +2819,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D115" s="4">
         <v>211</v>
@@ -2831,55 +2833,55 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="D116" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="D117" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="D118" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2887,27 +2889,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C120" s="4" t="s">
+      <c r="D120" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2915,13 +2917,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
@@ -2934,18 +2936,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D86 A88:D122">
+  <conditionalFormatting sqref="A2:D43 A45:D122">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87:D87">
+  <conditionalFormatting sqref="A44:D44">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A87))&gt;0</formula>
+      <formula>LEN(TRIM(A44))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58081E15-3077-4435-9635-DE234DDC2C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5004812-6A06-47EF-9588-FB402B39E4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -278,9 +278,6 @@
     <t>S040043</t>
   </si>
   <si>
-    <t>PANO DE CHAO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010037</t>
   </si>
   <si>
@@ -434,12 +431,6 @@
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
   </si>
   <si>
-    <t>LENCOL HOSPITALAR PAPEL 50CMX50M - UNICA</t>
-  </si>
-  <si>
-    <t>S010084</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -710,9 +701,6 @@
     <t>S150189</t>
   </si>
   <si>
-    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
-  </si>
-  <si>
     <t>S010012</t>
   </si>
   <si>
@@ -759,6 +747,18 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>LENCOL HOSPITALAR DE PAPEL - 50CMX50M</t>
+  </si>
+  <si>
+    <t>S010024</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - SPRAY</t>
   </si>
 </sst>
 </file>
@@ -866,7 +866,34 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1209,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1237,13 +1264,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1251,27 +1278,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1279,13 +1306,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1296,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1310,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1321,13 +1348,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D8" s="4">
         <v>53</v>
@@ -1335,55 +1362,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1394,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -1405,10 +1432,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -1419,10 +1446,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -1436,7 +1463,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -1450,7 +1477,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
@@ -1464,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1475,13 +1502,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
@@ -1492,7 +1519,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>16</v>
@@ -1506,7 +1533,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -1517,16 +1544,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1534,7 +1561,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1548,7 +1575,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1559,10 +1586,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
@@ -1576,7 +1603,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>23</v>
@@ -1590,7 +1617,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -1604,7 +1631,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1615,13 +1642,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D29" s="4">
         <v>904</v>
@@ -1629,24 +1656,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
@@ -1657,10 +1684,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>28</v>
@@ -1671,13 +1698,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1685,10 +1712,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>29</v>
@@ -1699,16 +1726,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1716,7 +1743,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>31</v>
@@ -1727,13 +1754,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1744,7 +1771,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>33</v>
@@ -1755,16 +1782,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,7 +1799,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>35</v>
@@ -1786,7 +1813,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1797,16 +1824,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,21 +1841,21 @@
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>40</v>
@@ -1842,7 +1869,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1856,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>44</v>
@@ -1870,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>44</v>
@@ -1884,7 +1911,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>44</v>
@@ -1898,7 +1925,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>44</v>
@@ -1909,27 +1936,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1937,13 +1964,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D52" s="4">
         <v>471</v>
@@ -1954,7 +1981,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>49</v>
@@ -1968,7 +1995,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>49</v>
@@ -1979,27 +2006,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -2010,7 +2037,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>52</v>
@@ -2024,7 +2051,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>54</v>
@@ -2038,7 +2065,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>56</v>
@@ -2049,13 +2076,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2066,7 +2093,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>58</v>
@@ -2077,13 +2104,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2091,16 +2118,16 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="D63" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2108,7 +2135,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>60</v>
@@ -2122,7 +2149,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>62</v>
@@ -2136,7 +2163,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>64</v>
@@ -2150,7 +2177,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>64</v>
@@ -2164,7 +2191,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>67</v>
@@ -2178,7 +2205,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>69</v>
@@ -2192,7 +2219,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>71</v>
@@ -2206,7 +2233,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>71</v>
@@ -2217,13 +2244,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D72" s="4">
         <v>33</v>
@@ -2231,27 +2258,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D74" s="4">
         <v>31</v>
@@ -2262,7 +2289,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>74</v>
@@ -2273,30 +2300,30 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2304,7 +2331,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>76</v>
@@ -2315,27 +2342,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2343,13 +2370,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2360,7 +2387,7 @@
         <v>77</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>78</v>
@@ -2371,55 +2398,55 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D84" s="4">
-        <v>1</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D86" s="4">
         <v>820</v>
@@ -2427,13 +2454,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D87" s="4">
         <v>819</v>
@@ -2441,13 +2468,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D88" s="4">
         <v>553</v>
@@ -2455,13 +2482,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D89" s="4">
         <v>433</v>
@@ -2469,13 +2496,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D90" s="4">
         <v>72</v>
@@ -2483,13 +2510,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D91" s="4">
         <v>86</v>
@@ -2497,13 +2524,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D92" s="4">
         <v>87</v>
@@ -2511,27 +2538,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D94" s="4">
         <v>55</v>
@@ -2539,13 +2566,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D95" s="4">
         <v>54</v>
@@ -2553,13 +2580,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="4">
         <v>994</v>
@@ -2567,13 +2594,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D97" s="4">
         <v>695</v>
@@ -2581,27 +2608,27 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2609,27 +2636,27 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2637,13 +2664,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D102" s="4">
         <v>884</v>
@@ -2651,13 +2678,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D103" s="4">
         <v>53</v>
@@ -2665,13 +2692,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D104" s="4">
         <v>107</v>
@@ -2679,13 +2706,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D105" s="4">
         <v>918</v>
@@ -2693,13 +2720,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D106" s="4">
         <v>747</v>
@@ -2707,13 +2734,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D107" s="4">
         <v>449</v>
@@ -2721,13 +2748,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D108" s="4">
         <v>170</v>
@@ -2735,13 +2762,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D109" s="4">
         <v>163</v>
@@ -2749,13 +2776,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D110" s="4">
         <v>799</v>
@@ -2763,13 +2790,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D111" s="4">
         <v>1127</v>
@@ -2777,13 +2804,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D112" s="4">
         <v>569</v>
@@ -2791,13 +2818,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D113" s="4">
         <v>762</v>
@@ -2805,13 +2832,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2819,13 +2846,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D115" s="4">
         <v>211</v>
@@ -2833,55 +2860,55 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2889,27 +2916,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2917,13 +2944,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
@@ -2936,18 +2963,28 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="5" priority="18">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D43 A45:D122">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D34 A64:D83 A85:D122 A36:D62">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="4">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:D44">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A44))&gt;0</formula>
+  <conditionalFormatting sqref="A63:D63">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+      <formula>LEN(TRIM(A63))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:D84">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
+      <formula>LEN(TRIM(A84))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:D35">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(A35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5004812-6A06-47EF-9588-FB402B39E4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C1EBA4-BE57-4EA6-BD82-8AB82F32B933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="237">
   <si>
     <t>Complemento</t>
   </si>
@@ -137,18 +137,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -230,15 +218,9 @@
     <t>S010026</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - 500ML - 500ML</t>
-  </si>
-  <si>
     <t>S010027</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - CIF</t>
-  </si>
-  <si>
     <t>LIVRO ATA - UNICA - UNICA</t>
   </si>
   <si>
@@ -494,18 +476,9 @@
     <t>DESINFETANTE LIQUIDO - 1000ML - 1000ML</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
@@ -759,6 +732,24 @@
   </si>
   <si>
     <t>DESODORIZADOR DE AMBIENTE - SPRAY</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF</t>
   </si>
 </sst>
 </file>
@@ -866,34 +857,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1236,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1264,13 +1228,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1278,27 +1242,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1306,13 +1270,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1323,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1337,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1348,13 +1312,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D8" s="4">
         <v>53</v>
@@ -1362,55 +1326,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1421,7 +1385,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -1432,10 +1396,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -1446,10 +1410,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -1463,7 +1427,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -1477,7 +1441,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
@@ -1491,7 +1455,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1502,13 +1466,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
@@ -1519,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>16</v>
@@ -1533,7 +1497,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -1544,16 +1508,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1561,7 +1525,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1575,7 +1539,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1586,10 +1550,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
@@ -1603,7 +1567,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>23</v>
@@ -1617,7 +1581,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -1631,7 +1595,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1642,13 +1606,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D29" s="4">
         <v>904</v>
@@ -1656,24 +1620,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
@@ -1684,10 +1648,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>28</v>
@@ -1698,13 +1662,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1712,10 +1676,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>29</v>
@@ -1726,13 +1690,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D35" s="4">
         <v>1160</v>
@@ -1743,7 +1707,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>31</v>
@@ -1754,69 +1718,69 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1824,41 +1788,41 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D44" s="4">
         <v>1159</v>
@@ -1866,13 +1830,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1880,13 +1844,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D46" s="4">
         <v>899</v>
@@ -1894,13 +1858,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D47" s="4">
         <v>896</v>
@@ -1908,13 +1872,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D48" s="4">
         <v>900</v>
@@ -1922,13 +1886,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D49" s="4">
         <v>898</v>
@@ -1936,27 +1900,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1964,13 +1928,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D52" s="4">
         <v>471</v>
@@ -1978,13 +1942,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D53" s="4">
         <v>166</v>
@@ -1992,13 +1956,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D54" s="4">
         <v>167</v>
@@ -2006,27 +1970,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -2034,13 +1998,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -2048,13 +2012,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D58" s="4">
         <v>80</v>
@@ -2062,13 +2026,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D59" s="4">
         <v>80</v>
@@ -2076,13 +2040,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2090,13 +2054,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2104,13 +2068,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2118,13 +2082,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D63" s="4">
         <v>1163</v>
@@ -2132,13 +2096,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D64" s="4">
         <v>40</v>
@@ -2146,13 +2110,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D65" s="4">
         <v>103</v>
@@ -2160,13 +2124,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>63</v>
+        <v>235</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D66" s="4">
         <v>103</v>
@@ -2174,13 +2138,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>65</v>
+        <v>236</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D67" s="4">
         <v>910</v>
@@ -2188,13 +2152,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2202,13 +2166,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D69" s="4">
         <v>745</v>
@@ -2216,13 +2180,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2230,13 +2194,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2244,13 +2208,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D72" s="4">
         <v>33</v>
@@ -2258,27 +2222,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D74" s="4">
         <v>31</v>
@@ -2286,13 +2250,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D75" s="4">
         <v>2</v>
@@ -2300,41 +2264,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2342,27 +2306,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2370,13 +2334,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2384,13 +2348,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D82" s="4">
         <v>211</v>
@@ -2398,27 +2362,27 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D84" s="4">
         <v>1166</v>
@@ -2426,27 +2390,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D86" s="4">
         <v>820</v>
@@ -2454,13 +2418,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D87" s="4">
         <v>819</v>
@@ -2468,13 +2432,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D88" s="4">
         <v>553</v>
@@ -2482,13 +2446,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D89" s="4">
         <v>433</v>
@@ -2496,13 +2460,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D90" s="4">
         <v>72</v>
@@ -2510,13 +2474,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D91" s="4">
         <v>86</v>
@@ -2524,13 +2488,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D92" s="4">
         <v>87</v>
@@ -2538,27 +2502,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D94" s="4">
         <v>55</v>
@@ -2566,13 +2530,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D95" s="4">
         <v>54</v>
@@ -2580,13 +2544,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D96" s="4">
         <v>994</v>
@@ -2594,13 +2558,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D97" s="4">
         <v>695</v>
@@ -2608,27 +2572,27 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2636,27 +2600,27 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2664,13 +2628,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D102" s="4">
         <v>884</v>
@@ -2678,13 +2642,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D103" s="4">
         <v>53</v>
@@ -2692,13 +2656,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D104" s="4">
         <v>107</v>
@@ -2706,13 +2670,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D105" s="4">
         <v>918</v>
@@ -2720,13 +2684,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D106" s="4">
         <v>747</v>
@@ -2734,13 +2698,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D107" s="4">
         <v>449</v>
@@ -2748,13 +2712,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D108" s="4">
         <v>170</v>
@@ -2762,13 +2726,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D109" s="4">
         <v>163</v>
@@ -2776,13 +2740,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D110" s="4">
         <v>799</v>
@@ -2790,13 +2754,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D111" s="4">
         <v>1127</v>
@@ -2804,13 +2768,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D112" s="4">
         <v>569</v>
@@ -2818,13 +2782,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D113" s="4">
         <v>762</v>
@@ -2832,13 +2796,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2846,13 +2810,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D115" s="4">
         <v>211</v>
@@ -2860,55 +2824,55 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2916,27 +2880,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2944,13 +2908,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
@@ -2963,28 +2927,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="5" priority="18">
+    <cfRule type="expression" dxfId="2" priority="20">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D34 A64:D83 A85:D122 A36:D62">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="4">
+  <conditionalFormatting sqref="A2:D65 A68:D122 B66:D67">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:D63">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
-      <formula>LEN(TRIM(A63))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:D84">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(A84))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:D35">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(A35))&gt;0</formula>
+  <conditionalFormatting sqref="A66:A67">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C1EBA4-BE57-4EA6-BD82-8AB82F32B933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CF7AB7-1199-49E1-8AB8-649523D47B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="236">
   <si>
     <t>Complemento</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -233,24 +227,15 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010030</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -404,15 +389,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010031</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -494,12 +473,6 @@
     <t>S230009</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
@@ -521,9 +494,6 @@
     <t>591</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -750,6 +720,33 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
 </sst>
 </file>
@@ -857,7 +854,61 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1200,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:A67"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1228,13 +1279,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1242,27 +1293,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1270,13 +1321,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1284,13 +1335,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D6" s="4">
         <v>105</v>
@@ -1298,13 +1349,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D7" s="4">
         <v>103</v>
@@ -1312,13 +1363,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D8" s="4">
         <v>53</v>
@@ -1326,55 +1377,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1382,13 +1433,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D13" s="4">
         <v>809</v>
@@ -1396,13 +1447,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4">
         <v>1046</v>
@@ -1410,13 +1461,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="4">
         <v>1045</v>
@@ -1424,13 +1475,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D16" s="4">
         <v>103</v>
@@ -1438,13 +1489,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4">
         <v>33</v>
@@ -1452,13 +1503,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D18" s="4">
         <v>31</v>
@@ -1466,13 +1517,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
@@ -1480,13 +1531,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D20" s="4">
         <v>20</v>
@@ -1494,13 +1545,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1508,27 +1559,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -1536,13 +1587,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
@@ -1550,13 +1601,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
@@ -1564,13 +1615,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1578,13 +1629,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1592,13 +1643,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D28" s="4">
         <v>52</v>
@@ -1606,13 +1657,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D29" s="4">
         <v>904</v>
@@ -1620,27 +1671,27 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4">
         <v>109</v>
@@ -1648,13 +1699,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="4">
         <v>100</v>
@@ -1662,13 +1713,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1676,13 +1727,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="4">
         <v>105</v>
@@ -1690,13 +1741,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D35" s="4">
         <v>1160</v>
@@ -1704,13 +1755,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D36" s="4">
         <v>103</v>
@@ -1718,13 +1769,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D37" s="4">
         <v>1176</v>
@@ -1732,13 +1783,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D38" s="4">
         <v>1177</v>
@@ -1746,13 +1797,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D39" s="4">
         <v>1178</v>
@@ -1760,13 +1811,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D40" s="4">
         <v>1179</v>
@@ -1774,13 +1825,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1788,41 +1839,41 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="4">
         <v>1159</v>
@@ -1830,13 +1881,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1844,13 +1895,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D46" s="4">
         <v>899</v>
@@ -1858,13 +1909,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" s="4">
         <v>896</v>
@@ -1872,13 +1923,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D48" s="4">
         <v>900</v>
@@ -1886,13 +1937,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D49" s="4">
         <v>898</v>
@@ -1900,27 +1951,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1928,13 +1979,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D52" s="4">
         <v>471</v>
@@ -1942,13 +1993,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D53" s="4">
         <v>166</v>
@@ -1956,13 +2007,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D54" s="4">
         <v>167</v>
@@ -1970,27 +2021,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1998,27 +2049,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D58" s="4">
         <v>80</v>
@@ -2026,13 +2077,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D59" s="4">
         <v>80</v>
@@ -2040,13 +2091,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2054,13 +2105,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2068,13 +2119,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2082,13 +2133,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D63" s="4">
         <v>1163</v>
@@ -2096,13 +2147,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D64" s="4">
         <v>40</v>
@@ -2110,13 +2161,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D65" s="4">
         <v>103</v>
@@ -2124,13 +2175,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D66" s="4">
         <v>103</v>
@@ -2138,13 +2189,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D67" s="4">
         <v>910</v>
@@ -2152,13 +2203,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2166,13 +2217,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D69" s="4">
         <v>745</v>
@@ -2180,13 +2231,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2194,13 +2245,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2208,13 +2259,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D72" s="4">
         <v>33</v>
@@ -2222,27 +2273,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>152</v>
+        <v>116</v>
+      </c>
+      <c r="D73" s="4">
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D74" s="4">
         <v>31</v>
@@ -2250,13 +2301,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D75" s="4">
         <v>2</v>
@@ -2264,41 +2315,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2306,27 +2357,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2334,13 +2385,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2348,13 +2399,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D82" s="4">
         <v>211</v>
@@ -2362,27 +2413,27 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D84" s="4">
         <v>1166</v>
@@ -2390,27 +2441,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>131</v>
+        <v>151</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D86" s="4">
         <v>820</v>
@@ -2418,13 +2469,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D87" s="4">
         <v>819</v>
@@ -2432,13 +2483,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D88" s="4">
         <v>553</v>
@@ -2446,13 +2497,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D89" s="4">
         <v>433</v>
@@ -2460,13 +2511,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D90" s="4">
         <v>72</v>
@@ -2474,13 +2525,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D91" s="4">
         <v>86</v>
@@ -2488,13 +2539,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D92" s="4">
         <v>87</v>
@@ -2502,27 +2553,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D94" s="4">
         <v>55</v>
@@ -2530,13 +2581,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D95" s="4">
         <v>54</v>
@@ -2544,13 +2595,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D96" s="4">
         <v>994</v>
@@ -2558,13 +2609,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D97" s="4">
         <v>695</v>
@@ -2572,27 +2623,27 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2600,27 +2651,27 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2628,13 +2679,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D102" s="4">
         <v>884</v>
@@ -2642,13 +2693,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D103" s="4">
         <v>53</v>
@@ -2656,13 +2707,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D104" s="4">
         <v>107</v>
@@ -2670,13 +2721,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D105" s="4">
         <v>918</v>
@@ -2684,13 +2735,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D106" s="4">
         <v>747</v>
@@ -2698,13 +2749,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D107" s="4">
         <v>449</v>
@@ -2712,13 +2763,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D108" s="4">
         <v>170</v>
@@ -2726,13 +2777,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D109" s="4">
         <v>163</v>
@@ -2740,13 +2791,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D110" s="4">
         <v>799</v>
@@ -2754,13 +2805,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D111" s="4">
         <v>1127</v>
@@ -2768,13 +2819,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D112" s="4">
         <v>569</v>
@@ -2782,13 +2833,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D113" s="4">
         <v>762</v>
@@ -2796,13 +2847,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2810,13 +2861,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D115" s="4">
         <v>211</v>
@@ -2824,55 +2875,55 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2880,27 +2931,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2908,13 +2959,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
@@ -2927,18 +2978,48 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="8" priority="27">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D65 A68:D122 B66:D67">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D5 A86:D122 A79:D84 A75:D77 A58:D69 A7:D56">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A67">
+  <conditionalFormatting sqref="A85:D85">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(A85))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:D78">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(B78))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A78))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:D74 A70:D71">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A70))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A74">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A72))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:D57">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A57))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:D6">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A66))&gt;0</formula>
+      <formula>LEN(TRIM(A6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CF7AB7-1199-49E1-8AB8-649523D47B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D090D7-4B51-4032-8547-6BD9954FFB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="234">
   <si>
     <t>Complemento</t>
   </si>
@@ -647,24 +647,6 @@
     <t>S010012</t>
   </si>
   <si>
-    <t>MOP PO REFIL - UNICA</t>
-  </si>
-  <si>
-    <t>S010076</t>
-  </si>
-  <si>
-    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010034</t>
-  </si>
-  <si>
-    <t>KIT MOP UMIDO - UNICA</t>
-  </si>
-  <si>
-    <t>S010086</t>
-  </si>
-  <si>
     <t>AVENTAL C/ MANGA - UNICA</t>
   </si>
   <si>
@@ -747,6 +729,18 @@
   </si>
   <si>
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>MOP - KIT UMIDO</t>
+  </si>
+  <si>
+    <t>S010075</t>
+  </si>
+  <si>
+    <t>MOP - REFIL PO</t>
+  </si>
+  <si>
+    <t>MOP - REFIL UMIDO</t>
   </si>
 </sst>
 </file>
@@ -854,61 +848,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1251,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,13 +1247,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1335,7 +1275,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>181</v>
@@ -1391,13 +1331,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>124</v>
@@ -1741,7 +1681,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>181</v>
@@ -1769,7 +1709,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>181</v>
@@ -1783,7 +1723,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>181</v>
@@ -1797,7 +1737,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>181</v>
@@ -1811,7 +1751,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>181</v>
@@ -1867,7 +1807,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>181</v>
@@ -1965,13 +1905,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -2049,7 +1989,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>181</v>
@@ -2091,13 +2031,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2105,13 +2045,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2119,55 +2059,55 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="D62" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="D63" s="4">
-        <v>1163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D64" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D65" s="4">
         <v>103</v>
@@ -2175,7 +2115,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>181</v>
@@ -2184,54 +2124,54 @@
         <v>57</v>
       </c>
       <c r="D66" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>226</v>
+        <v>58</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D67" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D68" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D69" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>181</v>
@@ -2240,26 +2180,26 @@
         <v>62</v>
       </c>
       <c r="D70" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="D71" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>182</v>
@@ -2268,12 +2208,12 @@
         <v>116</v>
       </c>
       <c r="D72" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>182</v>
@@ -2282,26 +2222,26 @@
         <v>116</v>
       </c>
       <c r="D73" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="D74" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>181</v>
@@ -2309,13 +2249,13 @@
       <c r="C75" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D75" s="4">
-        <v>2</v>
+      <c r="D75" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>181</v>
@@ -2324,77 +2264,77 @@
         <v>64</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>147</v>
+        <v>65</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>124</v>
+        <v>231</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1172</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="D80" s="4">
-        <v>1</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="D81" s="4">
-        <v>1</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2427,7 +2367,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>181</v>
@@ -2441,7 +2381,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>181</v>
@@ -2847,13 +2787,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2978,48 +2918,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="8" priority="27">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D5 A86:D122 A79:D84 A75:D77 A58:D69 A7:D56">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+  <conditionalFormatting sqref="A2:D78 A82:D122">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85:D85">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(A85))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:D78">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(B78))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A78))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:D74 A70:D71">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A70))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A74">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A72))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:D57">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A57))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:D6">
+  <conditionalFormatting sqref="A79:D81">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A6))&gt;0</formula>
+      <formula>LEN(TRIM(A79))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D090D7-4B51-4032-8547-6BD9954FFB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CD181F-524A-4886-BEC2-212325BAFFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$123</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="235">
   <si>
     <t>Complemento</t>
   </si>
@@ -227,9 +227,6 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>S010030</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
     <t>S010005</t>
   </si>
   <si>
-    <t>AGULHA - UNICA</t>
-  </si>
-  <si>
     <t>S010072</t>
   </si>
   <si>
@@ -389,9 +383,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>S010031</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -530,9 +521,6 @@
     <t>S010046</t>
   </si>
   <si>
-    <t>SACO P/ LIXO C/10UN - 30LT</t>
-  </si>
-  <si>
     <t>S010057</t>
   </si>
   <si>
@@ -710,21 +698,6 @@
     <t>MASCARA DESCARTAVEL - UNICA</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
-  </si>
-  <si>
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
@@ -741,6 +714,36 @@
   </si>
   <si>
     <t>MOP - REFIL UMIDO</t>
+  </si>
+  <si>
+    <t>AGULHA 12X40MM - 100UN</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO C/10UN - 30L</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080024</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080023</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
   </si>
 </sst>
 </file>
@@ -848,7 +851,43 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1189,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:D81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1219,13 +1258,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1233,27 +1272,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1261,24 +1300,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1292,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1303,13 +1342,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D8" s="4">
         <v>53</v>
@@ -1317,55 +1356,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1376,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -1387,10 +1426,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1401,10 +1440,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
@@ -1418,7 +1457,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1432,7 +1471,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
@@ -1446,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
@@ -1457,13 +1496,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
@@ -1474,7 +1513,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
@@ -1488,7 +1527,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1499,16 +1538,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1516,7 +1555,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>19</v>
@@ -1530,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
@@ -1541,10 +1580,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -1558,7 +1597,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
@@ -1572,7 +1611,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>24</v>
@@ -1586,7 +1625,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -1597,13 +1636,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D29" s="4">
         <v>904</v>
@@ -1611,24 +1650,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>27</v>
@@ -1639,10 +1678,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>27</v>
@@ -1653,13 +1692,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1667,10 +1706,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -1681,13 +1720,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D35" s="4">
         <v>1160</v>
@@ -1698,7 +1737,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>30</v>
@@ -1709,13 +1748,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D37" s="4">
         <v>1176</v>
@@ -1723,13 +1762,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D38" s="4">
         <v>1177</v>
@@ -1737,13 +1776,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D39" s="4">
         <v>1178</v>
@@ -1751,13 +1790,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D40" s="4">
         <v>1179</v>
@@ -1768,7 +1807,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
@@ -1779,16 +1818,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,27 +1835,27 @@
         <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,7 +1863,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -1838,7 +1877,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>39</v>
@@ -1852,7 +1891,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>39</v>
@@ -1866,7 +1905,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>39</v>
@@ -1880,7 +1919,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>39</v>
@@ -1891,27 +1930,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1919,13 +1958,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D52" s="4">
         <v>471</v>
@@ -1936,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>44</v>
@@ -1950,7 +1989,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>44</v>
@@ -1961,27 +2000,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1989,10 +2028,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>46</v>
@@ -2006,7 +2045,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>48</v>
@@ -2020,7 +2059,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>50</v>
@@ -2034,7 +2073,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>52</v>
@@ -2045,13 +2084,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2059,13 +2098,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D62" s="4">
         <v>1163</v>
@@ -2076,7 +2115,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>54</v>
@@ -2090,7 +2129,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>56</v>
@@ -2101,10 +2140,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
@@ -2115,10 +2154,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>57</v>
@@ -2132,7 +2171,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>59</v>
@@ -2146,7 +2185,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
@@ -2157,13 +2196,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="D69" s="4">
         <v>33</v>
@@ -2171,765 +2210,799 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="D70" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="D71" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="D72" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="D73" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="D74" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>145</v>
+        <v>63</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>124</v>
+        <v>64</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1172</v>
+        <v>192</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D80" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D81" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="D82" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>150</v>
+        <v>66</v>
+      </c>
+      <c r="D83" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84" s="4">
-        <v>1166</v>
+        <v>146</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="D85" s="4">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="D86" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D87" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D88" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="D89" s="4">
-        <v>433</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="D90" s="4">
-        <v>72</v>
+        <v>433</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D91" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D92" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>154</v>
+        <v>75</v>
+      </c>
+      <c r="D93" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D94" s="4">
-        <v>55</v>
+        <v>75</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D95" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D96" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D97" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>124</v>
+        <v>79</v>
+      </c>
+      <c r="D98" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D99" s="4">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>124</v>
+        <v>82</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D101" s="4">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="D102" s="4">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="D103" s="4">
-        <v>53</v>
+        <v>884</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D104" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D105" s="4">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="D106" s="4">
-        <v>747</v>
+        <v>918</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D107" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="D108" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D109" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D110" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D111" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D112" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D113" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="D114" s="4">
-        <v>1</v>
+        <v>762</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="D115" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>124</v>
+        <v>97</v>
+      </c>
+      <c r="D116" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C119" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="D119" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>174</v>
+        <v>117</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D121" s="4">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D123" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D122" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D122">
-      <sortCondition ref="A1:A122"/>
+  <autoFilter ref="A1:D123" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D123">
+      <sortCondition ref="A1:A123"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="6" priority="36">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D78 A82:D122">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D68 A75:D123">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:D81">
+  <conditionalFormatting sqref="A69:D71">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A69))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A74 C72:D74">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A72))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B72))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(B73))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A79))&gt;0</formula>
+      <formula>LEN(TRIM(B74))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CD181F-524A-4886-BEC2-212325BAFFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7049035-F70C-4CAC-9900-27380F269AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$122</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="233">
   <si>
     <t>Complemento</t>
   </si>
@@ -383,15 +383,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>SACO DE LIXO INFECTANTE - 50LTS</t>
-  </si>
-  <si>
     <t>S010062</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - ÚNICA</t>
-  </si>
-  <si>
     <t>S150190</t>
   </si>
   <si>
@@ -620,12 +614,6 @@
     <t>S150037</t>
   </si>
   <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
-  </si>
-  <si>
     <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
   </si>
   <si>
@@ -635,12 +623,6 @@
     <t>S010012</t>
   </si>
   <si>
-    <t>AVENTAL C/ MANGA - UNICA</t>
-  </si>
-  <si>
-    <t>S150204</t>
-  </si>
-  <si>
     <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
   </si>
   <si>
@@ -744,6 +726,18 @@
   </si>
   <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>AVENTAL DESCARTAVEL TNT MANGA LONGA - 30G</t>
+  </si>
+  <si>
+    <t>S080016</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO INFECTANTE - 50L</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
   </si>
 </sst>
 </file>
@@ -851,52 +845,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1228,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:D74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:XFD118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1261,7 +1210,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>101</v>
@@ -1272,27 +1221,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1300,10 +1249,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>109</v>
@@ -1314,10 +1263,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1331,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1345,7 +1294,7 @@
         <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>108</v>
@@ -1356,55 +1305,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>121</v>
+        <v>230</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1415,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -1426,10 +1375,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1440,10 +1389,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
@@ -1457,7 +1406,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1471,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
@@ -1485,7 +1434,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
@@ -1499,7 +1448,7 @@
         <v>102</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>103</v>
@@ -1513,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
@@ -1527,7 +1476,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1538,16 +1487,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,7 +1504,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>19</v>
@@ -1569,7 +1518,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
@@ -1580,10 +1529,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -1597,7 +1546,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
@@ -1611,7 +1560,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>24</v>
@@ -1625,7 +1574,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -1639,7 +1588,7 @@
         <v>110</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>111</v>
@@ -1650,24 +1599,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>27</v>
@@ -1681,7 +1630,7 @@
         <v>104</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>27</v>
@@ -1692,13 +1641,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1706,10 +1655,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -1720,13 +1669,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D35" s="4">
         <v>1160</v>
@@ -1737,7 +1686,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>30</v>
@@ -1748,13 +1697,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D37" s="4">
         <v>1176</v>
@@ -1762,13 +1711,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D38" s="4">
         <v>1177</v>
@@ -1776,13 +1725,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D39" s="4">
         <v>1178</v>
@@ -1790,13 +1739,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D40" s="4">
         <v>1179</v>
@@ -1807,7 +1756,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
@@ -1818,16 +1767,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1835,21 +1784,21 @@
         <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>35</v>
@@ -1863,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -1877,7 +1826,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>39</v>
@@ -1891,7 +1840,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>39</v>
@@ -1905,7 +1854,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>39</v>
@@ -1919,7 +1868,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>39</v>
@@ -1930,27 +1879,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1961,7 +1910,7 @@
         <v>105</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>106</v>
@@ -1975,7 +1924,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>44</v>
@@ -1989,7 +1938,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>44</v>
@@ -2000,27 +1949,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -2028,10 +1977,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>46</v>
@@ -2045,7 +1994,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>48</v>
@@ -2059,7 +2008,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>50</v>
@@ -2073,7 +2022,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>52</v>
@@ -2087,7 +2036,7 @@
         <v>112</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>113</v>
@@ -2098,16 +2047,16 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D62" s="4">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2115,7 +2064,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>54</v>
@@ -2129,7 +2078,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>56</v>
@@ -2140,10 +2089,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
@@ -2154,10 +2103,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>57</v>
@@ -2171,7 +2120,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>59</v>
@@ -2185,7 +2134,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
@@ -2196,13 +2145,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D69" s="4">
         <v>33</v>
@@ -2210,13 +2159,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2224,13 +2173,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2238,13 +2187,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D72" s="4">
         <v>33</v>
@@ -2252,13 +2201,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D73" s="4">
         <v>32</v>
@@ -2266,13 +2215,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D74" s="4">
         <v>31</v>
@@ -2283,7 +2232,7 @@
         <v>62</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>63</v>
@@ -2294,38 +2243,38 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>64</v>
@@ -2336,27 +2285,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D80" s="4">
         <v>1172</v>
@@ -2364,13 +2313,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D81" s="4">
         <v>1173</v>
@@ -2378,13 +2327,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D82" s="4">
         <v>1174</v>
@@ -2395,7 +2344,7 @@
         <v>65</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>66</v>
@@ -2406,24 +2355,24 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>67</v>
@@ -2434,13 +2383,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D86" s="4">
         <v>1167</v>
@@ -2451,7 +2400,7 @@
         <v>68</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>69</v>
@@ -2465,7 +2414,7 @@
         <v>70</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>69</v>
@@ -2479,7 +2428,7 @@
         <v>71</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>72</v>
@@ -2490,13 +2439,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D90" s="4">
         <v>433</v>
@@ -2504,10 +2453,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>73</v>
@@ -2521,7 +2470,7 @@
         <v>74</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>75</v>
@@ -2535,7 +2484,7 @@
         <v>76</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>75</v>
@@ -2546,24 +2495,24 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>77</v>
@@ -2574,10 +2523,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>77</v>
@@ -2591,7 +2540,7 @@
         <v>80</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>79</v>
@@ -2605,7 +2554,7 @@
         <v>78</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>79</v>
@@ -2616,16 +2565,16 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2633,7 +2582,7 @@
         <v>81</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>82</v>
@@ -2644,16 +2593,16 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2661,7 +2610,7 @@
         <v>83</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>84</v>
@@ -2672,13 +2621,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D103" s="4">
         <v>884</v>
@@ -2689,7 +2638,7 @@
         <v>85</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>86</v>
@@ -2703,7 +2652,7 @@
         <v>87</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>88</v>
@@ -2714,27 +2663,27 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D106" s="4">
-        <v>918</v>
+        <v>986</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D107" s="4">
         <v>437</v>
@@ -2742,13 +2691,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D108" s="4">
         <v>449</v>
@@ -2759,7 +2708,7 @@
         <v>89</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>90</v>
@@ -2773,7 +2722,7 @@
         <v>91</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>90</v>
@@ -2787,7 +2736,7 @@
         <v>92</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>90</v>
@@ -2798,10 +2747,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>93</v>
@@ -2815,7 +2764,7 @@
         <v>94</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>93</v>
@@ -2829,7 +2778,7 @@
         <v>95</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>93</v>
@@ -2840,13 +2789,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -2857,7 +2806,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>97</v>
@@ -2868,141 +2817,102 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D120" s="4">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>170</v>
+      <c r="D121" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D123" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D123" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D123">
-      <sortCondition ref="A1:A123"/>
+  <autoFilter ref="A1:D122" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D122">
+      <sortCondition ref="A1:A122"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="6" priority="36">
+    <cfRule type="expression" dxfId="1" priority="42">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D68 A75:D123">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="A2:D122">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:D71">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A69))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A74 C72:D74">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A72))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B72))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(B73))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B74))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7049035-F70C-4CAC-9900-27380F269AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3B15AC-E067-414D-93B9-84164B8A766A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -233,9 +233,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -677,9 +674,6 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
@@ -738,6 +732,12 @@
   </si>
   <si>
     <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -845,7 +845,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1179,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:XFD118"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1207,13 +1216,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1221,27 +1230,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1249,13 +1258,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="6">
         <v>0.5</v>
@@ -1263,10 +1272,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1280,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1291,13 +1300,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D8" s="4">
         <v>53</v>
@@ -1305,27 +1314,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D10" s="4">
         <v>1208</v>
@@ -1333,27 +1342,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1364,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -1375,10 +1384,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1389,10 +1398,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
@@ -1406,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1420,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
@@ -1434,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
@@ -1445,13 +1454,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
@@ -1462,7 +1471,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
@@ -1476,7 +1485,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1487,16 +1496,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1504,7 +1513,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>19</v>
@@ -1518,7 +1527,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
@@ -1529,10 +1538,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -1546,7 +1555,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
@@ -1560,7 +1569,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>24</v>
@@ -1574,7 +1583,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -1585,13 +1594,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D29" s="4">
         <v>904</v>
@@ -1599,24 +1608,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>27</v>
@@ -1627,10 +1636,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>27</v>
@@ -1641,13 +1650,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1655,10 +1664,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -1669,13 +1678,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D35" s="4">
         <v>1160</v>
@@ -1686,7 +1695,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>30</v>
@@ -1697,13 +1706,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D37" s="4">
         <v>1176</v>
@@ -1711,13 +1720,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D38" s="4">
         <v>1177</v>
@@ -1725,13 +1734,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D39" s="4">
         <v>1178</v>
@@ -1739,13 +1748,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="4">
         <v>1179</v>
@@ -1756,7 +1765,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
@@ -1767,16 +1776,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1784,21 +1793,21 @@
         <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>35</v>
@@ -1812,7 +1821,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -1826,7 +1835,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>39</v>
@@ -1840,7 +1849,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>39</v>
@@ -1854,7 +1863,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>39</v>
@@ -1868,7 +1877,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>39</v>
@@ -1879,27 +1888,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="D50" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1907,13 +1916,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D52" s="4">
         <v>471</v>
@@ -1924,7 +1933,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>44</v>
@@ -1938,7 +1947,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>44</v>
@@ -1949,27 +1958,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D55" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1977,10 +1986,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>46</v>
@@ -1994,7 +2003,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>48</v>
@@ -2008,7 +2017,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>50</v>
@@ -2022,7 +2031,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>52</v>
@@ -2033,13 +2042,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2047,13 +2056,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D62" s="4">
         <v>1164</v>
@@ -2064,7 +2073,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>54</v>
@@ -2078,7 +2087,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>56</v>
@@ -2089,10 +2098,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
@@ -2103,10 +2112,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>57</v>
@@ -2120,7 +2129,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>59</v>
@@ -2134,7 +2143,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
@@ -2145,13 +2154,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D69" s="4">
         <v>33</v>
@@ -2159,13 +2168,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2173,13 +2182,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2187,13 +2196,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D72" s="4">
         <v>33</v>
@@ -2201,13 +2210,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D73" s="4">
         <v>32</v>
@@ -2215,13 +2224,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D74" s="4">
         <v>31</v>
@@ -2232,7 +2241,7 @@
         <v>62</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>63</v>
@@ -2243,69 +2252,69 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="D78" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D80" s="4">
         <v>1172</v>
@@ -2313,13 +2322,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D81" s="4">
         <v>1173</v>
@@ -2327,13 +2336,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D82" s="4">
         <v>1174</v>
@@ -2341,13 +2350,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D83" s="4">
         <v>211</v>
@@ -2355,41 +2364,41 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D85" s="4">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D86" s="4">
         <v>1167</v>
@@ -2397,13 +2406,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D87" s="4">
         <v>820</v>
@@ -2411,13 +2420,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D88" s="4">
         <v>819</v>
@@ -2425,13 +2434,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D89" s="4">
         <v>553</v>
@@ -2439,13 +2448,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="D90" s="4">
         <v>433</v>
@@ -2453,13 +2462,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D91" s="4">
         <v>72</v>
@@ -2467,13 +2476,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D92" s="4">
         <v>86</v>
@@ -2481,13 +2490,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D93" s="4">
         <v>87</v>
@@ -2495,27 +2504,27 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D95" s="4">
         <v>55</v>
@@ -2523,13 +2532,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D96" s="4">
         <v>54</v>
@@ -2537,13 +2546,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D97" s="4">
         <v>994</v>
@@ -2551,13 +2560,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D98" s="4">
         <v>695</v>
@@ -2565,27 +2574,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D99" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2593,27 +2602,27 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="D101" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -2621,13 +2630,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D103" s="4">
         <v>884</v>
@@ -2635,13 +2644,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D104" s="4">
         <v>53</v>
@@ -2649,13 +2658,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D105" s="4">
         <v>107</v>
@@ -2663,13 +2672,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D106" s="4">
         <v>986</v>
@@ -2677,13 +2686,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D107" s="4">
         <v>437</v>
@@ -2691,13 +2700,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D108" s="4">
         <v>449</v>
@@ -2705,13 +2714,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D109" s="4">
         <v>170</v>
@@ -2719,13 +2728,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D110" s="4">
         <v>163</v>
@@ -2733,13 +2742,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D111" s="4">
         <v>799</v>
@@ -2747,13 +2756,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D112" s="4">
         <v>1127</v>
@@ -2761,13 +2770,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D113" s="4">
         <v>569</v>
@@ -2775,13 +2784,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D114" s="4">
         <v>762</v>
@@ -2789,13 +2798,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -2803,13 +2812,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D116" s="4">
         <v>211</v>
@@ -2817,41 +2826,41 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="D117" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="D118" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2859,27 +2868,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C120" s="4" t="s">
+      <c r="D120" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2887,13 +2896,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
@@ -2906,13 +2915,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="42">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D122">
+  <conditionalFormatting sqref="A2:D77 A79:D122">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:D78">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3B15AC-E067-414D-93B9-84164B8A766A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A16EAB-7801-4BF2-B016-93EDBD56784F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -845,16 +845,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1189,7 +1180,7 @@
   <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,7 +2448,7 @@
         <v>170</v>
       </c>
       <c r="D90" s="4">
-        <v>433</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2915,18 +2906,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="1" priority="43">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D77 A79:D122">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D122">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:D78">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A16EAB-7801-4BF2-B016-93EDBD56784F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B05F2CF-4415-4191-8747-5DB149494895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -548,9 +548,6 @@
     <t>S110036</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO PC C/4UND - PACOTE - PACOTE</t>
-  </si>
-  <si>
     <t>S010040</t>
   </si>
   <si>
@@ -738,6 +735,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO PC C/4UND - PACOTE C/ 4</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>100</v>
@@ -1221,27 +1221,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1249,10 +1249,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>108</v>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1280,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1294,7 +1294,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>107</v>
@@ -1308,7 +1308,7 @@
         <v>115</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>116</v>
@@ -1319,13 +1319,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="D10" s="4">
         <v>1208</v>
@@ -1336,7 +1336,7 @@
         <v>119</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>120</v>
@@ -1350,7 +1350,7 @@
         <v>122</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>123</v>
@@ -1364,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -1378,7 +1378,7 @@
         <v>124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1392,7 +1392,7 @@
         <v>125</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
@@ -1406,7 +1406,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1420,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
@@ -1434,7 +1434,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
@@ -1448,7 +1448,7 @@
         <v>101</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>102</v>
@@ -1462,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
@@ -1476,7 +1476,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1490,7 +1490,7 @@
         <v>126</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>127</v>
@@ -1504,7 +1504,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>19</v>
@@ -1518,7 +1518,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
@@ -1529,10 +1529,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -1546,7 +1546,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
@@ -1560,7 +1560,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>24</v>
@@ -1574,7 +1574,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>109</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>110</v>
@@ -1602,7 +1602,7 @@
         <v>128</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>110</v>
@@ -1616,7 +1616,7 @@
         <v>130</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>27</v>
@@ -1630,7 +1630,7 @@
         <v>103</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>27</v>
@@ -1641,13 +1641,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>131</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D35" s="4">
         <v>1160</v>
@@ -1686,7 +1686,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>30</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>132</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>132</v>
@@ -1725,10 +1725,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>132</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>132</v>
@@ -1756,7 +1756,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
@@ -1770,7 +1770,7 @@
         <v>133</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>134</v>
@@ -1784,7 +1784,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>34</v>
@@ -1795,10 +1795,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>35</v>
@@ -1812,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -1826,7 +1826,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>39</v>
@@ -1840,7 +1840,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>39</v>
@@ -1854,7 +1854,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>39</v>
@@ -1868,7 +1868,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>39</v>
@@ -1879,13 +1879,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>118</v>
@@ -1893,13 +1893,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1910,7 +1910,7 @@
         <v>104</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>105</v>
@@ -1924,7 +1924,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>44</v>
@@ -1938,7 +1938,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>44</v>
@@ -1952,7 +1952,7 @@
         <v>136</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>137</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>46</v>
@@ -1994,7 +1994,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>48</v>
@@ -2008,7 +2008,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>50</v>
@@ -2022,7 +2022,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>52</v>
@@ -2036,7 +2036,7 @@
         <v>111</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>112</v>
@@ -2047,13 +2047,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D62" s="4">
         <v>1164</v>
@@ -2064,7 +2064,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>54</v>
@@ -2078,7 +2078,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>56</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>57</v>
@@ -2120,7 +2120,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>59</v>
@@ -2134,7 +2134,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="D69" s="4">
         <v>33</v>
@@ -2159,13 +2159,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2173,13 +2173,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2187,13 +2187,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="D72" s="4">
         <v>33</v>
@@ -2201,13 +2201,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D73" s="4">
         <v>32</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" s="4">
         <v>31</v>
@@ -2232,7 +2232,7 @@
         <v>62</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>63</v>
@@ -2246,7 +2246,7 @@
         <v>138</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>63</v>
@@ -2260,7 +2260,7 @@
         <v>140</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>63</v>
@@ -2271,13 +2271,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="D78" s="4">
         <v>1181</v>
@@ -2285,13 +2285,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>118</v>
@@ -2299,13 +2299,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D80" s="4">
         <v>1172</v>
@@ -2313,13 +2313,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D81" s="4">
         <v>1173</v>
@@ -2327,13 +2327,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D82" s="4">
         <v>1174</v>
@@ -2344,7 +2344,7 @@
         <v>64</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>65</v>
@@ -2358,7 +2358,7 @@
         <v>142</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>143</v>
@@ -2369,10 +2369,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>66</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>145</v>
@@ -2400,7 +2400,7 @@
         <v>67</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>68</v>
@@ -2414,7 +2414,7 @@
         <v>69</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>68</v>
@@ -2428,7 +2428,7 @@
         <v>70</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>71</v>
@@ -2439,13 +2439,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D90" s="4">
         <v>1168</v>
@@ -2456,7 +2456,7 @@
         <v>146</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>72</v>
@@ -2470,7 +2470,7 @@
         <v>73</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>74</v>
@@ -2484,7 +2484,7 @@
         <v>75</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>74</v>
@@ -2498,7 +2498,7 @@
         <v>147</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>74</v>
@@ -2512,7 +2512,7 @@
         <v>149</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>76</v>
@@ -2526,7 +2526,7 @@
         <v>150</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>76</v>
@@ -2540,7 +2540,7 @@
         <v>79</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>78</v>
@@ -2554,7 +2554,7 @@
         <v>77</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>78</v>
@@ -2568,7 +2568,7 @@
         <v>151</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>152</v>
@@ -2582,7 +2582,7 @@
         <v>80</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>81</v>
@@ -2596,7 +2596,7 @@
         <v>153</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>154</v>
@@ -2610,7 +2610,7 @@
         <v>82</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>83</v>
@@ -2624,7 +2624,7 @@
         <v>155</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>156</v>
@@ -2638,7 +2638,7 @@
         <v>84</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>85</v>
@@ -2652,7 +2652,7 @@
         <v>86</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>87</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>113</v>
@@ -2677,10 +2677,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>157</v>
@@ -2694,7 +2694,7 @@
         <v>158</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>159</v>
@@ -2708,7 +2708,7 @@
         <v>88</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>89</v>
@@ -2722,7 +2722,7 @@
         <v>90</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>89</v>
@@ -2736,7 +2736,7 @@
         <v>91</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>89</v>
@@ -2750,7 +2750,7 @@
         <v>160</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>92</v>
@@ -2764,7 +2764,7 @@
         <v>93</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>92</v>
@@ -2778,7 +2778,7 @@
         <v>94</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>92</v>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -2806,7 +2806,7 @@
         <v>95</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>96</v>
@@ -2820,7 +2820,7 @@
         <v>161</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>162</v>
@@ -2834,7 +2834,7 @@
         <v>163</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>164</v>
@@ -2845,10 +2845,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>114</v>
@@ -2862,7 +2862,7 @@
         <v>165</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>166</v>
@@ -2873,10 +2873,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>168</v>
@@ -2890,7 +2890,7 @@
         <v>97</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>98</v>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B05F2CF-4415-4191-8747-5DB149494895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3328303A-09FE-4754-9BE6-CD2BE1C016BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="229">
   <si>
     <t>Complemento</t>
   </si>
@@ -53,12 +53,6 @@
     <t>S010004</t>
   </si>
   <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
-  </si>
-  <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
   </si>
   <si>
@@ -405,12 +399,6 @@
   </si>
   <si>
     <t>122</t>
-  </si>
-  <si>
-    <t>BISCOITO - ROSQUINHA</t>
-  </si>
-  <si>
-    <t>S030006</t>
   </si>
   <si>
     <t>BOBINA P/ PONTO ELETRONICO - 57X300 (GRANDE)</t>
@@ -1177,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1207,13 +1195,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1221,27 +1209,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1249,13 +1237,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="6">
         <v>0.5</v>
@@ -1263,10 +1251,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1277,128 +1265,128 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D7" s="4">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="4">
-        <v>53</v>
+        <v>114</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>117</v>
+        <v>223</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1208</v>
+        <v>118</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>121</v>
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4">
-        <v>831</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D13" s="4">
-        <v>809</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="4">
-        <v>1046</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4">
-        <v>1045</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,69 +1394,69 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="4">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D17" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4">
-        <v>20</v>
+        <v>123</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1476,279 +1464,279 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>118</v>
+        <v>17</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D24" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>904</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="4">
-        <v>52</v>
+        <v>108</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4">
         <v>109</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="4">
-        <v>904</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>129</v>
+        <v>25</v>
+      </c>
+      <c r="D30" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="4">
-        <v>109</v>
+        <v>186</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="4">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1160</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="D35" s="4">
-        <v>1160</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D36" s="4">
-        <v>103</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D37" s="4">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D38" s="4">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D39" s="4">
-        <v>1178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1179</v>
+        <v>130</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1756,83 +1744,83 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="4">
-        <v>1</v>
+      <c r="D41" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>135</v>
+        <v>33</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>118</v>
+        <v>35</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D44" s="4">
-        <v>1162</v>
+        <v>899</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>896</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D46" s="4">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1840,329 +1828,329 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D47" s="4">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="4">
-        <v>900</v>
+        <v>182</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="D49" s="4">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
+      </c>
+      <c r="D50" s="4">
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="D51" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="D52" s="4">
-        <v>471</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="4">
-        <v>166</v>
+        <v>133</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="D54" s="4">
-        <v>167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>118</v>
+        <v>44</v>
+      </c>
+      <c r="D55" s="4">
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D57" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D58" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D59" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="D61" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="D62" s="4">
-        <v>1164</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D63" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D64" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D65" s="4">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D66" s="4">
-        <v>910</v>
+        <v>745</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="D67" s="4">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="D68" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D69" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>219</v>
@@ -2173,10 +2161,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>219</v>
@@ -2187,394 +2175,394 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D72" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="D73" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D74" s="4">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D75" s="4">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>139</v>
+        <v>227</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="D78" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>118</v>
+        <v>209</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1173</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D80" s="4">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="D81" s="4">
-        <v>1173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D82" s="4">
-        <v>1174</v>
+        <v>139</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="D83" s="4">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D85" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="D86" s="4">
-        <v>1167</v>
+        <v>819</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D87" s="4">
-        <v>820</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="D88" s="4">
-        <v>819</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D89" s="4">
-        <v>553</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="D90" s="4">
-        <v>1168</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D91" s="4">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D92" s="4">
-        <v>86</v>
+        <v>72</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D93" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>148</v>
+      <c r="D94" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D95" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D96" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D97" s="4">
-        <v>994</v>
+        <v>148</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D98" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2582,7 +2570,7 @@
         <v>80</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>81</v>
@@ -2593,16 +2581,16 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>118</v>
+        <v>152</v>
+      </c>
+      <c r="D101" s="4">
+        <v>884</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,125 +2598,125 @@
         <v>82</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D102" s="4">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="D103" s="4">
-        <v>884</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D104" s="4">
-        <v>53</v>
+        <v>986</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="D105" s="4">
-        <v>107</v>
+        <v>437</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="D106" s="4">
-        <v>986</v>
+        <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D107" s="4">
-        <v>437</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="D108" s="4">
-        <v>449</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D109" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D110" s="4">
-        <v>163</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2736,122 +2724,122 @@
         <v>91</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D111" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D112" s="4">
-        <v>1127</v>
+        <v>762</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="D113" s="4">
-        <v>569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D114" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D115" s="4">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D116" s="4">
-        <v>211</v>
+        <v>160</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2859,50 +2847,22 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D121" s="4">
+        <v>96</v>
+      </c>
+      <c r="D120" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D122" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D122" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D122">
-      <sortCondition ref="A1:A122"/>
+  <autoFilter ref="A1:D120" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D120">
+      <sortCondition ref="A1:A120"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2910,7 +2870,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D122">
+  <conditionalFormatting sqref="A2:D120">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3328303A-09FE-4754-9BE6-CD2BE1C016BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18291F72-DD21-4CEC-8E90-C50161437E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -653,9 +653,6 @@
     <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
   </si>
   <si>
-    <t>LIMPADOR MULTIUSO - CIF</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
@@ -726,6 +723,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO PC C/4UND - PACOTE C/ 4</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1167,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1246,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>170</v>
@@ -1251,7 +1260,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>169</v>
@@ -1293,13 +1302,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1937,7 +1946,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>169</v>
@@ -2063,7 +2072,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>169</v>
@@ -2072,7 +2081,7 @@
         <v>55</v>
       </c>
       <c r="D64" s="4">
-        <v>910</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2105,13 +2114,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2119,13 +2128,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2133,13 +2142,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2147,13 +2156,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2161,13 +2170,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2175,13 +2184,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2231,13 +2240,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="4">
         <v>1181</v>
@@ -2259,13 +2268,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="D78" s="4">
         <v>1172</v>
@@ -2273,13 +2282,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D79" s="4">
         <v>1173</v>
@@ -2287,13 +2296,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D80" s="4">
         <v>1174</v>
@@ -2343,7 +2352,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>169</v>
@@ -2399,7 +2408,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>172</v>
@@ -2623,7 +2632,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>172</v>
@@ -2637,7 +2646,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>172</v>
@@ -2805,7 +2814,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>170</v>
@@ -2866,13 +2875,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="43">
+    <cfRule type="expression" dxfId="2" priority="44">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D120">
+  <conditionalFormatting sqref="A2:D63 A65:D120">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:D64">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A64))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18291F72-DD21-4CEC-8E90-C50161437E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF94325-A1A1-4135-9C62-350FEC09784C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="226">
   <si>
     <t>Complemento</t>
   </si>
@@ -260,9 +260,6 @@
     <t>S020025</t>
   </si>
   <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
     <t>S200035</t>
   </si>
   <si>
@@ -468,12 +465,6 @@
   </si>
   <si>
     <t>PAPEL TOALHA INTERFOLHADO - 1000 FLS</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
-  </si>
-  <si>
-    <t>88</t>
   </si>
   <si>
     <t>PILHA - AA</t>
@@ -833,16 +824,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1174,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:D64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1204,13 +1186,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1218,27 +1200,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1246,13 +1228,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="6">
         <v>0.5</v>
@@ -1260,10 +1242,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1274,13 +1256,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1288,27 +1270,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1316,16 +1298,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -1344,10 +1326,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -1358,10 +1340,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1375,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1389,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1403,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1414,13 +1396,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1431,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1445,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
@@ -1456,16 +1438,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1473,7 +1455,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1487,7 +1469,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
@@ -1498,10 +1480,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>17</v>
@@ -1515,7 +1497,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1529,7 +1511,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
@@ -1543,7 +1525,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
@@ -1554,13 +1536,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D27" s="4">
         <v>904</v>
@@ -1568,24 +1550,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>25</v>
@@ -1596,10 +1578,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
@@ -1610,13 +1592,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
@@ -1624,10 +1606,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>26</v>
@@ -1638,13 +1620,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1655,7 +1637,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -1666,13 +1648,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="4">
         <v>1176</v>
@@ -1680,13 +1662,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" s="4">
         <v>1177</v>
@@ -1694,13 +1676,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="4">
         <v>1178</v>
@@ -1708,13 +1690,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D38" s="4">
         <v>1179</v>
@@ -1725,7 +1707,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>30</v>
@@ -1736,16 +1718,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1753,21 +1735,21 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>33</v>
@@ -1781,7 +1763,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -1795,7 +1777,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>37</v>
@@ -1809,7 +1791,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -1823,7 +1805,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>37</v>
@@ -1837,7 +1819,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>37</v>
@@ -1848,27 +1830,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1876,13 +1858,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1893,7 +1875,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>42</v>
@@ -1907,7 +1889,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>42</v>
@@ -1918,27 +1900,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1946,10 +1928,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>44</v>
@@ -1963,7 +1945,7 @@
         <v>45</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>46</v>
@@ -1977,7 +1959,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>48</v>
@@ -1991,7 +1973,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>50</v>
@@ -2002,13 +1984,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -2016,13 +1998,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D60" s="4">
         <v>1164</v>
@@ -2033,7 +2015,7 @@
         <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>52</v>
@@ -2047,7 +2029,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>54</v>
@@ -2058,10 +2040,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>55</v>
@@ -2072,10 +2054,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>55</v>
@@ -2089,7 +2071,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
@@ -2103,7 +2085,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>59</v>
@@ -2114,13 +2096,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2128,13 +2110,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2142,13 +2124,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2156,13 +2138,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2170,13 +2152,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2184,13 +2166,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2201,7 +2183,7 @@
         <v>60</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>61</v>
@@ -2212,41 +2194,41 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D76" s="4">
         <v>1181</v>
@@ -2254,27 +2236,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D78" s="4">
         <v>1172</v>
@@ -2282,13 +2264,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D79" s="4">
         <v>1173</v>
@@ -2296,13 +2278,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D80" s="4">
         <v>1174</v>
@@ -2313,7 +2295,7 @@
         <v>62</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>63</v>
@@ -2324,24 +2306,24 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>64</v>
@@ -2352,13 +2334,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D84" s="4">
         <v>1167</v>
@@ -2369,7 +2351,7 @@
         <v>65</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>66</v>
@@ -2383,7 +2365,7 @@
         <v>67</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>66</v>
@@ -2397,7 +2379,7 @@
         <v>68</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>69</v>
@@ -2408,13 +2390,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D88" s="4">
         <v>1168</v>
@@ -2422,10 +2404,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>70</v>
@@ -2439,7 +2421,7 @@
         <v>71</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>72</v>
@@ -2450,16 +2432,16 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D91" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2467,94 +2449,94 @@
         <v>143</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>144</v>
+        <v>73</v>
+      </c>
+      <c r="D92" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D93" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D94" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D95" s="4">
-        <v>994</v>
+        <v>145</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D96" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="D97" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2562,184 +2544,184 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>116</v>
+        <v>149</v>
+      </c>
+      <c r="D99" s="4">
+        <v>884</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D100" s="4">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="D101" s="4">
-        <v>884</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D102" s="4">
-        <v>53</v>
+        <v>986</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="D103" s="4">
-        <v>107</v>
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="D104" s="4">
-        <v>986</v>
+        <v>449</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="D105" s="4">
-        <v>437</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="D106" s="4">
-        <v>449</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D107" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D108" s="4">
-        <v>163</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D109" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D110" s="4">
-        <v>1127</v>
+        <v>762</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="D111" s="4">
-        <v>569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2747,80 +2729,80 @@
         <v>92</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D112" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D113" s="4">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D114" s="4">
-        <v>211</v>
+        <v>157</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C116" s="4" t="s">
+      <c r="D116" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -2828,65 +2810,32 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D119" s="4">
+        <v>95</v>
+      </c>
+      <c r="D118" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D120" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D120" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D120">
-      <sortCondition ref="A1:A120"/>
+  <autoFilter ref="A1:D118" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D118">
+      <sortCondition ref="A1:A118"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="44">
+    <cfRule type="expression" dxfId="1" priority="44">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D63 A65:D120">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D118">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D64">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A64))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF94325-A1A1-4135-9C62-350FEC09784C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EDE4C5-A5FA-4719-B510-2C7E385CB600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="224">
   <si>
     <t>Complemento</t>
   </si>
@@ -245,9 +245,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -527,9 +524,6 @@
     <t>S110036</t>
   </si>
   <si>
-    <t>S010040</t>
-  </si>
-  <si>
     <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
   </si>
   <si>
@@ -551,9 +545,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PC C/100</t>
   </si>
   <si>
@@ -713,10 +704,13 @@
     <t>S080026</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO PC C/4UND - PACOTE C/ 4</t>
-  </si>
-  <si>
     <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 30MT PC C/4</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1153,7 @@
   <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:XFD91"/>
+      <selection activeCell="A87" sqref="A87:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1186,13 +1180,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1200,27 +1194,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1228,13 +1222,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="6">
         <v>0.5</v>
@@ -1242,10 +1236,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1256,13 +1250,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1270,27 +1264,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1298,16 +1292,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -1326,10 +1320,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -1340,10 +1334,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1357,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1371,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1385,7 +1379,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1396,13 +1390,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1413,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1427,7 +1421,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
@@ -1438,16 +1432,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1455,7 +1449,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1469,7 +1463,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
@@ -1480,10 +1474,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>17</v>
@@ -1497,7 +1491,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1511,7 +1505,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
@@ -1525,7 +1519,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
@@ -1536,13 +1530,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D27" s="4">
         <v>904</v>
@@ -1550,24 +1544,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>25</v>
@@ -1578,10 +1572,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
@@ -1592,13 +1586,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
@@ -1606,10 +1600,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>26</v>
@@ -1620,13 +1614,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1637,7 +1631,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -1648,13 +1642,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4">
         <v>1176</v>
@@ -1662,13 +1656,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" s="4">
         <v>1177</v>
@@ -1676,13 +1670,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37" s="4">
         <v>1178</v>
@@ -1690,13 +1684,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="4">
         <v>1179</v>
@@ -1707,7 +1701,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>30</v>
@@ -1718,16 +1712,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,21 +1729,21 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>33</v>
@@ -1763,7 +1757,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -1777,7 +1771,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>37</v>
@@ -1791,7 +1785,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -1805,7 +1799,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>37</v>
@@ -1819,7 +1813,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>37</v>
@@ -1830,27 +1824,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1858,13 +1852,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1875,7 +1869,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>42</v>
@@ -1889,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>42</v>
@@ -1900,27 +1894,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1928,10 +1922,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>44</v>
@@ -1945,7 +1939,7 @@
         <v>45</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>46</v>
@@ -1959,7 +1953,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>48</v>
@@ -1973,7 +1967,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>50</v>
@@ -1984,13 +1978,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1998,13 +1992,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D60" s="4">
         <v>1164</v>
@@ -2015,7 +2009,7 @@
         <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>52</v>
@@ -2029,7 +2023,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>54</v>
@@ -2040,10 +2034,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>55</v>
@@ -2054,10 +2048,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>55</v>
@@ -2071,7 +2065,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
@@ -2085,7 +2079,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>59</v>
@@ -2096,13 +2090,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2110,13 +2104,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2124,13 +2118,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2138,13 +2132,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2152,13 +2146,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2166,13 +2160,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2183,7 +2177,7 @@
         <v>60</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>61</v>
@@ -2194,41 +2188,41 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D76" s="4">
         <v>1181</v>
@@ -2236,27 +2230,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D78" s="4">
         <v>1172</v>
@@ -2264,13 +2258,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D79" s="4">
         <v>1173</v>
@@ -2278,13 +2272,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D80" s="4">
         <v>1174</v>
@@ -2295,7 +2289,7 @@
         <v>62</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>63</v>
@@ -2306,24 +2300,24 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>64</v>
@@ -2334,13 +2328,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D84" s="4">
         <v>1167</v>
@@ -2351,7 +2345,7 @@
         <v>65</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>66</v>
@@ -2365,7 +2359,7 @@
         <v>67</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>66</v>
@@ -2376,41 +2370,41 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D87" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="D88" s="4">
-        <v>1168</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D89" s="4">
         <v>72</v>
@@ -2418,13 +2412,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D90" s="4">
         <v>86</v>
@@ -2432,13 +2426,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D91" s="4">
         <v>55</v>
@@ -2446,13 +2440,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D92" s="4">
         <v>54</v>
@@ -2460,13 +2454,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D93" s="4">
         <v>994</v>
@@ -2474,13 +2468,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D94" s="4">
         <v>695</v>
@@ -2488,27 +2482,27 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="D95" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2516,27 +2510,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="D97" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2544,13 +2538,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="D99" s="4">
         <v>884</v>
@@ -2558,13 +2552,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D100" s="4">
         <v>53</v>
@@ -2572,13 +2566,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D101" s="4">
         <v>107</v>
@@ -2586,13 +2580,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D102" s="4">
         <v>986</v>
@@ -2600,13 +2594,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D103" s="4">
         <v>437</v>
@@ -2614,13 +2608,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D104" s="4">
         <v>449</v>
@@ -2628,13 +2622,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D105" s="4">
         <v>170</v>
@@ -2642,13 +2636,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D106" s="4">
         <v>163</v>
@@ -2656,13 +2650,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D107" s="4">
         <v>799</v>
@@ -2670,13 +2664,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D108" s="4">
         <v>1127</v>
@@ -2684,13 +2678,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D109" s="4">
         <v>569</v>
@@ -2698,13 +2692,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D110" s="4">
         <v>762</v>
@@ -2712,13 +2706,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2726,13 +2720,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D112" s="4">
         <v>211</v>
@@ -2740,41 +2734,41 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="D113" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="D114" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -2782,27 +2776,27 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C116" s="4" t="s">
+      <c r="D116" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -2810,13 +2804,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EDE4C5-A5FA-4719-B510-2C7E385CB600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C7F7CA-A033-411A-8CF5-CC52A6F02B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -182,9 +182,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -711,6 +708,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1152,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:D87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1180,13 +1189,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1194,27 +1203,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1222,13 +1231,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6">
         <v>0.5</v>
@@ -1236,10 +1245,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1250,13 +1259,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1264,27 +1273,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1292,16 +1301,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1309,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -1320,10 +1329,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -1334,10 +1343,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1351,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1365,7 +1374,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1379,7 +1388,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1390,13 +1399,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1407,7 +1416,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1421,7 +1430,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
@@ -1432,16 +1441,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,7 +1458,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1463,7 +1472,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
@@ -1474,10 +1483,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>17</v>
@@ -1491,7 +1500,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1505,7 +1514,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
@@ -1519,7 +1528,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
@@ -1530,13 +1539,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D27" s="4">
         <v>904</v>
@@ -1544,24 +1553,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>25</v>
@@ -1572,10 +1581,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
@@ -1586,13 +1595,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
@@ -1600,10 +1609,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>26</v>
@@ -1614,13 +1623,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1631,7 +1640,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -1642,13 +1651,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" s="4">
         <v>1176</v>
@@ -1656,13 +1665,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" s="4">
         <v>1177</v>
@@ -1670,13 +1679,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37" s="4">
         <v>1178</v>
@@ -1684,13 +1693,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D38" s="4">
         <v>1179</v>
@@ -1701,7 +1710,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>30</v>
@@ -1712,16 +1721,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,21 +1738,21 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>33</v>
@@ -1757,7 +1766,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -1771,7 +1780,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>37</v>
@@ -1785,7 +1794,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -1799,7 +1808,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>37</v>
@@ -1813,7 +1822,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>37</v>
@@ -1824,27 +1833,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1852,13 +1861,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1869,7 +1878,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>42</v>
@@ -1883,7 +1892,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>42</v>
@@ -1894,27 +1903,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1922,10 +1931,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>44</v>
@@ -1939,7 +1948,7 @@
         <v>45</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>46</v>
@@ -1950,27 +1959,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D57" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1978,13 +1987,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1992,13 +2001,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="D60" s="4">
         <v>1164</v>
@@ -2006,13 +2015,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D61" s="4">
         <v>40</v>
@@ -2020,13 +2029,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D62" s="4">
         <v>103</v>
@@ -2034,13 +2043,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" s="4">
         <v>103</v>
@@ -2048,13 +2057,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D64" s="4">
         <v>1166</v>
@@ -2062,13 +2071,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -2076,13 +2085,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D66" s="4">
         <v>745</v>
@@ -2090,13 +2099,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2104,13 +2113,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2118,13 +2127,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2132,13 +2141,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2146,13 +2155,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2160,13 +2169,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2174,13 +2183,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -2188,41 +2197,41 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="D76" s="4">
         <v>1181</v>
@@ -2230,27 +2239,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D78" s="4">
         <v>1172</v>
@@ -2258,13 +2267,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D79" s="4">
         <v>1173</v>
@@ -2272,13 +2281,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D80" s="4">
         <v>1174</v>
@@ -2286,13 +2295,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D81" s="4">
         <v>211</v>
@@ -2300,27 +2309,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D83" s="4">
         <v>1167</v>
@@ -2328,13 +2337,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D84" s="4">
         <v>1167</v>
@@ -2342,13 +2351,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D85" s="4">
         <v>820</v>
@@ -2356,13 +2365,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D86" s="4">
         <v>819</v>
@@ -2370,13 +2379,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D87" s="4">
         <v>1394</v>
@@ -2384,13 +2393,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D88" s="4">
         <v>1393</v>
@@ -2398,13 +2407,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D89" s="4">
         <v>72</v>
@@ -2412,13 +2421,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D90" s="4">
         <v>86</v>
@@ -2426,13 +2435,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D91" s="4">
         <v>55</v>
@@ -2440,13 +2449,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D92" s="4">
         <v>54</v>
@@ -2454,13 +2463,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D93" s="4">
         <v>994</v>
@@ -2468,13 +2477,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D94" s="4">
         <v>695</v>
@@ -2482,27 +2491,27 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D95" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2510,27 +2519,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D97" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2538,13 +2547,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D99" s="4">
         <v>884</v>
@@ -2552,13 +2561,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D100" s="4">
         <v>53</v>
@@ -2566,13 +2575,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D101" s="4">
         <v>107</v>
@@ -2580,13 +2589,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D102" s="4">
         <v>986</v>
@@ -2594,13 +2603,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D103" s="4">
         <v>437</v>
@@ -2608,13 +2617,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D104" s="4">
         <v>449</v>
@@ -2622,13 +2631,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D105" s="4">
         <v>170</v>
@@ -2636,13 +2645,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D106" s="4">
         <v>163</v>
@@ -2650,13 +2659,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D107" s="4">
         <v>799</v>
@@ -2664,13 +2673,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D108" s="4">
         <v>1127</v>
@@ -2678,13 +2687,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D109" s="4">
         <v>569</v>
@@ -2692,13 +2701,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D110" s="4">
         <v>762</v>
@@ -2706,13 +2715,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2720,13 +2729,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D112" s="4">
         <v>211</v>
@@ -2734,41 +2743,41 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D113" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="D114" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -2776,27 +2785,27 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C116" s="4" t="s">
+      <c r="D116" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -2804,13 +2813,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -2823,13 +2832,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="44">
+    <cfRule type="expression" dxfId="2" priority="45">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D118">
+  <conditionalFormatting sqref="A2:D56 A58:D118">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:D57">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C7F7CA-A033-411A-8CF5-CC52A6F02B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE19381D-5F7C-4A79-A039-9E26459B68DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="215">
   <si>
     <t>Complemento</t>
   </si>
@@ -83,9 +83,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -98,15 +95,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -128,24 +119,15 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -185,9 +167,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -206,9 +185,6 @@
     <t>S010027</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -266,15 +242,9 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
-    <t>RODO - UNICA</t>
-  </si>
-  <si>
     <t>S110029</t>
   </si>
   <si>
@@ -317,9 +287,6 @@
     <t>S040046</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -359,9 +326,6 @@
     <t>S010009</t>
   </si>
   <si>
-    <t>LANCETAS - UNICA</t>
-  </si>
-  <si>
     <t>S150191</t>
   </si>
   <si>
@@ -377,39 +341,21 @@
     <t>S020071</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>BALDE - 10L - 10L</t>
   </si>
   <si>
     <t>S110003</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>BOBINA P/ PONTO ELETRONICO - 57X300 (GRANDE)</t>
   </si>
   <si>
     <t>BOBINA P/ PONTO ELETRONICO - 57X40 (PEQUENA)</t>
   </si>
   <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>COLETOR PERFURO-CORTANTE - 7LTS</t>
   </si>
   <si>
-    <t>903</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 150ML - 150ML</t>
   </si>
   <si>
@@ -425,36 +371,21 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - VERMELHO - VERMELHO</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>PA PLASTICA P/ LIXO - CABO LONGO</t>
   </si>
   <si>
     <t>S110020</t>
   </si>
   <si>
-    <t>591</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -467,15 +398,9 @@
     <t>PILHA - AAA</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
@@ -497,9 +422,6 @@
     <t>SACOLA PLASTICA - 25X30</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
@@ -521,9 +443,6 @@
     <t>S110036</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
     <t>S050008</t>
   </si>
   <si>
@@ -557,27 +476,15 @@
     <t>S030004</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
-    <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S150037</t>
   </si>
   <si>
-    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
@@ -590,9 +497,6 @@
     <t>S010002</t>
   </si>
   <si>
-    <t>TAPETE - UNICA</t>
-  </si>
-  <si>
     <t>S110059</t>
   </si>
   <si>
@@ -692,9 +596,6 @@
     <t>SACO P/ LIXO INFECTANTE - 50L</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - TNT</t>
   </si>
   <si>
@@ -711,6 +612,78 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - 500 UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LANCETAS - 100UN - 100UN</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>MEXEDOR PARA CAFE - 500 UND</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>RODO - C/ CABO 40CM</t>
+  </si>
+  <si>
+    <t>TAPETE - 1,20x0,80</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - ON CALL</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -818,16 +791,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1161,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:D57"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1189,13 +1153,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1203,27 +1167,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>172</v>
+        <v>144</v>
+      </c>
+      <c r="D3" s="6">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1231,13 +1195,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6">
         <v>0.5</v>
@@ -1245,10 +1209,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1259,13 +1223,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1273,27 +1237,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1301,16 +1265,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
+      </c>
+      <c r="D10" s="6">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1318,7 +1282,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -1329,10 +1293,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -1343,10 +1307,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1360,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1374,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1388,7 +1352,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1399,13 +1363,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1416,7 +1380,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1427,41 +1391,41 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>113</v>
+        <v>193</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1184</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -1469,13 +1433,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
@@ -1483,13 +1447,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="4">
         <v>4</v>
@@ -1497,41 +1461,41 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="4">
         <v>52</v>
@@ -1539,13 +1503,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D27" s="4">
         <v>904</v>
@@ -1553,27 +1517,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>122</v>
+        <v>94</v>
+      </c>
+      <c r="D28" s="6">
+        <v>903</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4">
         <v>109</v>
@@ -1581,13 +1545,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="4">
         <v>100</v>
@@ -1595,27 +1559,27 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="D31" s="6">
-        <v>1</v>
+        <v>874</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D32" s="4">
         <v>105</v>
@@ -1623,13 +1587,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1637,13 +1601,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D34" s="4">
         <v>103</v>
@@ -1651,13 +1615,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D35" s="4">
         <v>1176</v>
@@ -1665,13 +1629,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D36" s="4">
         <v>1177</v>
@@ -1679,13 +1643,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D37" s="4">
         <v>1178</v>
@@ -1693,13 +1657,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D38" s="4">
         <v>1179</v>
@@ -1707,55 +1671,55 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>128</v>
+        <v>109</v>
+      </c>
+      <c r="D40" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>113</v>
+        <v>27</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1454</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D42" s="4">
         <v>1162</v>
@@ -1763,27 +1727,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D44" s="4">
         <v>899</v>
@@ -1791,13 +1755,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D45" s="4">
         <v>896</v>
@@ -1805,13 +1769,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D46" s="4">
         <v>900</v>
@@ -1819,13 +1783,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D47" s="4">
         <v>898</v>
@@ -1833,27 +1797,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>113</v>
+        <v>146</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1456</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1861,13 +1825,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1875,13 +1839,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D51" s="4">
         <v>166</v>
@@ -1889,13 +1853,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D52" s="4">
         <v>167</v>
@@ -1903,41 +1867,41 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="D53" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D54" s="4">
-        <v>1</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D55" s="4">
         <v>448</v>
@@ -1945,13 +1909,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D56" s="4">
         <v>80</v>
@@ -1959,13 +1923,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D57" s="4">
         <v>1396</v>
@@ -1973,41 +1937,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="D60" s="4">
         <v>1164</v>
@@ -2015,13 +1979,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D61" s="4">
         <v>40</v>
@@ -2029,13 +1993,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D62" s="4">
         <v>103</v>
@@ -2043,13 +2007,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D63" s="4">
         <v>103</v>
@@ -2057,13 +2021,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D64" s="4">
         <v>1166</v>
@@ -2071,27 +2035,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D65" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D66" s="4">
         <v>745</v>
@@ -2099,13 +2063,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2113,13 +2077,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2127,13 +2091,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2141,13 +2105,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2155,13 +2119,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2169,13 +2133,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2183,13 +2147,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -2197,41 +2161,41 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>132</v>
+        <v>52</v>
+      </c>
+      <c r="D74" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>134</v>
+        <v>52</v>
+      </c>
+      <c r="D75" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D76" s="4">
         <v>1181</v>
@@ -2239,27 +2203,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>113</v>
+        <v>147</v>
+      </c>
+      <c r="D77" s="6">
+        <v>874</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="D78" s="4">
         <v>1172</v>
@@ -2267,13 +2231,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="D79" s="4">
         <v>1173</v>
@@ -2281,13 +2245,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="D80" s="4">
         <v>1174</v>
@@ -2295,13 +2259,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D81" s="4">
         <v>211</v>
@@ -2309,27 +2273,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>137</v>
+        <v>114</v>
+      </c>
+      <c r="D82" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D83" s="4">
         <v>1167</v>
@@ -2337,13 +2301,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D84" s="4">
         <v>1167</v>
@@ -2351,13 +2315,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D85" s="4">
         <v>820</v>
@@ -2365,13 +2329,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D86" s="4">
         <v>819</v>
@@ -2379,13 +2343,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D87" s="4">
         <v>1394</v>
@@ -2393,13 +2357,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D88" s="4">
         <v>1393</v>
@@ -2407,13 +2371,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="C89" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D89" s="4">
         <v>72</v>
@@ -2421,13 +2385,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D90" s="4">
         <v>86</v>
@@ -2435,13 +2399,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D91" s="4">
         <v>55</v>
@@ -2449,13 +2413,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D92" s="4">
         <v>54</v>
@@ -2463,13 +2427,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D93" s="4">
         <v>994</v>
@@ -2477,13 +2441,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D94" s="4">
         <v>695</v>
@@ -2491,69 +2455,69 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D96" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="D97" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D98" s="4">
-        <v>1</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D99" s="4">
         <v>884</v>
@@ -2561,13 +2525,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D100" s="4">
         <v>53</v>
@@ -2575,13 +2539,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D101" s="4">
         <v>107</v>
@@ -2589,13 +2553,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D102" s="4">
         <v>986</v>
@@ -2603,13 +2567,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D103" s="4">
         <v>437</v>
@@ -2617,13 +2581,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D104" s="4">
         <v>449</v>
@@ -2631,13 +2595,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D105" s="4">
         <v>170</v>
@@ -2645,13 +2609,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D106" s="4">
         <v>163</v>
@@ -2659,13 +2623,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D107" s="4">
         <v>799</v>
@@ -2673,13 +2637,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D108" s="4">
         <v>1127</v>
@@ -2687,13 +2651,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D109" s="4">
         <v>569</v>
@@ -2701,13 +2665,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D110" s="4">
         <v>762</v>
@@ -2715,27 +2679,27 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D111" s="4">
-        <v>1</v>
+        <v>878</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D112" s="4">
         <v>211</v>
@@ -2743,107 +2707,97 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>113</v>
+        <v>127</v>
+      </c>
+      <c r="D113" s="6">
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>112</v>
+        <v>129</v>
+      </c>
+      <c r="D114" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D115" s="4">
-        <v>1</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="D117" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D118" s="4">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D118" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D118">
-      <sortCondition ref="A1:A118"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="45">
+    <cfRule type="expression" dxfId="1" priority="45">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D56 A58:D118">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D118">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:D57">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE19381D-5F7C-4A79-A039-9E26459B68DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F074751-06B5-4DE9-AEC5-BAFBB7433444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="217">
   <si>
     <t>Complemento</t>
   </si>
@@ -684,6 +684,12 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,83 +1943,83 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="D58" s="4">
-        <v>1416</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>132</v>
+        <v>42</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1416</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="4">
-        <v>1164</v>
+        <v>95</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="D61" s="4">
-        <v>40</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D62" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D63" s="4">
         <v>103</v>
@@ -2021,7 +2027,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>136</v>
@@ -2030,54 +2036,54 @@
         <v>47</v>
       </c>
       <c r="D64" s="4">
-        <v>1166</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D65" s="4">
-        <v>70</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D66" s="4">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="D67" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>136</v>
@@ -2091,7 +2097,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>136</v>
@@ -2100,26 +2106,26 @@
         <v>175</v>
       </c>
       <c r="D69" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D70" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>136</v>
@@ -2128,12 +2134,12 @@
         <v>179</v>
       </c>
       <c r="D71" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>136</v>
@@ -2142,26 +2148,26 @@
         <v>179</v>
       </c>
       <c r="D72" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="D73" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>136</v>
@@ -2169,13 +2175,13 @@
       <c r="C74" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="6">
-        <v>3</v>
+      <c r="D74" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>136</v>
@@ -2184,54 +2190,54 @@
         <v>52</v>
       </c>
       <c r="D75" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1181</v>
+        <v>52</v>
+      </c>
+      <c r="D76" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D77" s="6">
-        <v>874</v>
+        <v>186</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1172</v>
+        <v>147</v>
+      </c>
+      <c r="D78" s="6">
+        <v>874</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>136</v>
@@ -2240,12 +2246,12 @@
         <v>169</v>
       </c>
       <c r="D79" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>136</v>
@@ -2254,60 +2260,60 @@
         <v>169</v>
       </c>
       <c r="D80" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="D81" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D82" s="6">
-        <v>591</v>
+        <v>54</v>
+      </c>
+      <c r="D82" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D83" s="4">
-        <v>1167</v>
+        <v>114</v>
+      </c>
+      <c r="D83" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="D84" s="4">
         <v>1167</v>
@@ -2315,21 +2321,21 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="D85" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>139</v>
@@ -2338,26 +2344,26 @@
         <v>57</v>
       </c>
       <c r="D86" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D87" s="4">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>139</v>
@@ -2366,54 +2372,54 @@
         <v>59</v>
       </c>
       <c r="D88" s="4">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D89" s="4">
-        <v>72</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D90" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D91" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>136</v>
@@ -2422,26 +2428,26 @@
         <v>63</v>
       </c>
       <c r="D92" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D93" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>136</v>
@@ -2450,180 +2456,180 @@
         <v>65</v>
       </c>
       <c r="D94" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1457</v>
+        <v>65</v>
+      </c>
+      <c r="D95" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D96" s="4">
-        <v>1182</v>
+        <v>119</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D97" s="6">
-        <v>1030</v>
+        <v>67</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D98" s="4">
-        <v>1468</v>
+        <v>120</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D99" s="4">
-        <v>884</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="D100" s="4">
-        <v>53</v>
+        <v>884</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D101" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D102" s="4">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D103" s="4">
-        <v>437</v>
+        <v>986</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D104" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="D105" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D106" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>136</v>
@@ -2632,26 +2638,26 @@
         <v>74</v>
       </c>
       <c r="D107" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D108" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>141</v>
@@ -2660,12 +2666,12 @@
         <v>77</v>
       </c>
       <c r="D109" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>141</v>
@@ -2674,118 +2680,132 @@
         <v>77</v>
       </c>
       <c r="D110" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="D111" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="D112" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D113" s="6">
-        <v>202</v>
+        <v>81</v>
+      </c>
+      <c r="D113" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D114" s="6">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D115" s="4">
-        <v>1418</v>
+        <v>129</v>
+      </c>
+      <c r="D115" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>132</v>
+        <v>97</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D117" s="4">
-        <v>15</v>
+        <v>131</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D118" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C118" s="4" t="s">
+      <c r="B119" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D119" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2795,7 +2815,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D118">
+  <conditionalFormatting sqref="A2:D119">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F074751-06B5-4DE9-AEC5-BAFBB7433444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8A3D75-4AC3-44F4-AB3A-F275BA96C1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8A3D75-4AC3-44F4-AB3A-F275BA96C1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B33AA0-1667-4002-9D68-25F1DF7F8BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="219">
   <si>
     <t>Complemento</t>
   </si>
@@ -690,6 +690,12 @@
   </si>
   <si>
     <t>S050011</t>
+  </si>
+  <si>
+    <t>ESCOVA DE NYLON - VASO SANITARIO</t>
+  </si>
+  <si>
+    <t>S110017</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD58"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,49 +1725,49 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1162</v>
+        <v>218</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1449</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="4">
-        <v>1455</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D44" s="4">
-        <v>899</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>136</v>
@@ -1770,12 +1776,12 @@
         <v>31</v>
       </c>
       <c r="D45" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>136</v>
@@ -1784,12 +1790,12 @@
         <v>31</v>
       </c>
       <c r="D46" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>136</v>
@@ -1798,68 +1804,68 @@
         <v>31</v>
       </c>
       <c r="D47" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="6">
-        <v>1456</v>
+        <v>31</v>
+      </c>
+      <c r="D48" s="4">
+        <v>898</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="4">
-        <v>750</v>
+        <v>146</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1456</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="D50" s="4">
-        <v>471</v>
+        <v>750</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D51" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>136</v>
@@ -1868,172 +1874,172 @@
         <v>36</v>
       </c>
       <c r="D52" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="6">
-        <v>272</v>
+        <v>36</v>
+      </c>
+      <c r="D53" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1157</v>
+        <v>110</v>
+      </c>
+      <c r="D54" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="D55" s="4">
-        <v>448</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D56" s="4">
-        <v>80</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57" s="4">
-        <v>1396</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="D58" s="4">
-        <v>116</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="D59" s="4">
-        <v>1416</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>132</v>
+        <v>42</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1416</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" s="4">
-        <v>1164</v>
+        <v>95</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="D62" s="4">
-        <v>40</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D63" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D64" s="4">
         <v>103</v>
@@ -2041,7 +2047,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>136</v>
@@ -2050,54 +2056,54 @@
         <v>47</v>
       </c>
       <c r="D65" s="4">
-        <v>1166</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D66" s="4">
-        <v>70</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D67" s="4">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="D68" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>136</v>
@@ -2111,7 +2117,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>136</v>
@@ -2120,26 +2126,26 @@
         <v>175</v>
       </c>
       <c r="D70" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D71" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>136</v>
@@ -2148,12 +2154,12 @@
         <v>179</v>
       </c>
       <c r="D72" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>136</v>
@@ -2162,26 +2168,26 @@
         <v>179</v>
       </c>
       <c r="D73" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="D74" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>136</v>
@@ -2189,13 +2195,13 @@
       <c r="C75" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="6">
-        <v>3</v>
+      <c r="D75" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>136</v>
@@ -2204,54 +2210,54 @@
         <v>52</v>
       </c>
       <c r="D76" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1181</v>
+        <v>52</v>
+      </c>
+      <c r="D77" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D78" s="6">
-        <v>874</v>
+        <v>186</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1172</v>
+        <v>147</v>
+      </c>
+      <c r="D79" s="6">
+        <v>874</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>136</v>
@@ -2260,12 +2266,12 @@
         <v>169</v>
       </c>
       <c r="D80" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>136</v>
@@ -2274,60 +2280,60 @@
         <v>169</v>
       </c>
       <c r="D81" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="D82" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D83" s="6">
-        <v>591</v>
+        <v>54</v>
+      </c>
+      <c r="D83" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D84" s="4">
-        <v>1167</v>
+        <v>114</v>
+      </c>
+      <c r="D84" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="D85" s="4">
         <v>1167</v>
@@ -2335,21 +2341,21 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="D86" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>139</v>
@@ -2358,26 +2364,26 @@
         <v>57</v>
       </c>
       <c r="D87" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D88" s="4">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>139</v>
@@ -2386,54 +2392,54 @@
         <v>59</v>
       </c>
       <c r="D89" s="4">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D90" s="4">
-        <v>72</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D91" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D92" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>136</v>
@@ -2442,26 +2448,26 @@
         <v>63</v>
       </c>
       <c r="D93" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D94" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>136</v>
@@ -2470,180 +2476,180 @@
         <v>65</v>
       </c>
       <c r="D95" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D96" s="6">
-        <v>1457</v>
+        <v>65</v>
+      </c>
+      <c r="D96" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D97" s="4">
-        <v>1182</v>
+        <v>119</v>
+      </c>
+      <c r="D97" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D98" s="6">
-        <v>1030</v>
+        <v>67</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" s="4">
-        <v>1468</v>
+        <v>120</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D100" s="4">
-        <v>884</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="D101" s="4">
-        <v>53</v>
+        <v>884</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D102" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D103" s="4">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D104" s="4">
-        <v>437</v>
+        <v>986</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D105" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="D106" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D107" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>136</v>
@@ -2652,26 +2658,26 @@
         <v>74</v>
       </c>
       <c r="D108" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D109" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>141</v>
@@ -2680,12 +2686,12 @@
         <v>77</v>
       </c>
       <c r="D110" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>141</v>
@@ -2694,118 +2700,132 @@
         <v>77</v>
       </c>
       <c r="D111" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="D112" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="D113" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D114" s="6">
-        <v>202</v>
+        <v>81</v>
+      </c>
+      <c r="D114" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D115" s="6">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D116" s="4">
-        <v>1418</v>
+        <v>129</v>
+      </c>
+      <c r="D116" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>132</v>
+        <v>97</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D118" s="4">
-        <v>15</v>
+        <v>131</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D119" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C119" s="4" t="s">
+      <c r="B120" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D120" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2815,7 +2835,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D119">
+  <conditionalFormatting sqref="A2:D120">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B33AA0-1667-4002-9D68-25F1DF7F8BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DCE475-3CDB-4B15-9622-92CC53CED417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="218">
   <si>
     <t>Complemento</t>
   </si>
@@ -600,9 +600,6 @@
   </si>
   <si>
     <t>S080026</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO - 30MT PC C/4</t>
@@ -1135,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1400,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>136</v>
@@ -1417,13 +1414,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="D20" s="6">
         <v>1184</v>
@@ -1473,7 +1470,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>137</v>
@@ -1487,7 +1484,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>137</v>
@@ -1571,7 +1568,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>136</v>
@@ -1683,7 +1680,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>136</v>
@@ -1711,7 +1708,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>136</v>
@@ -1725,13 +1722,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="D42" s="6">
         <v>1449</v>
@@ -1753,7 +1750,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>136</v>
@@ -1823,7 +1820,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>136</v>
@@ -1893,7 +1890,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>136</v>
@@ -1907,7 +1904,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>136</v>
@@ -1949,7 +1946,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>137</v>
@@ -1963,13 +1960,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="D59" s="4">
         <v>116</v>
@@ -1977,7 +1974,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>136</v>
@@ -1991,7 +1988,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>137</v>
@@ -2061,49 +2058,49 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D66" s="4">
-        <v>1166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D67" s="4">
-        <v>70</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="D68" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>136</v>
@@ -2117,7 +2114,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>136</v>
@@ -2126,26 +2123,26 @@
         <v>175</v>
       </c>
       <c r="D70" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D71" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>136</v>
@@ -2154,12 +2151,12 @@
         <v>179</v>
       </c>
       <c r="D72" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>136</v>
@@ -2168,26 +2165,26 @@
         <v>179</v>
       </c>
       <c r="D73" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="D74" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>136</v>
@@ -2195,13 +2192,13 @@
       <c r="C75" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="4">
-        <v>2</v>
+      <c r="D75" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>136</v>
@@ -2210,54 +2207,54 @@
         <v>52</v>
       </c>
       <c r="D76" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" s="6">
-        <v>4</v>
+        <v>186</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1181</v>
+        <v>147</v>
+      </c>
+      <c r="D78" s="6">
+        <v>874</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D79" s="6">
-        <v>874</v>
+        <v>169</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1172</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>136</v>
@@ -2266,12 +2263,12 @@
         <v>169</v>
       </c>
       <c r="D80" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>136</v>
@@ -2280,60 +2277,60 @@
         <v>169</v>
       </c>
       <c r="D81" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="D82" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" s="4">
-        <v>211</v>
+        <v>114</v>
+      </c>
+      <c r="D83" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D84" s="6">
-        <v>591</v>
+        <v>55</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="D85" s="4">
         <v>1167</v>
@@ -2341,21 +2338,21 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="D86" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>139</v>
@@ -2364,26 +2361,26 @@
         <v>57</v>
       </c>
       <c r="D87" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D88" s="4">
-        <v>819</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>139</v>
@@ -2392,54 +2389,54 @@
         <v>59</v>
       </c>
       <c r="D89" s="4">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D90" s="4">
-        <v>1393</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D91" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D92" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>136</v>
@@ -2448,26 +2445,26 @@
         <v>63</v>
       </c>
       <c r="D93" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D94" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>136</v>
@@ -2476,21 +2473,21 @@
         <v>65</v>
       </c>
       <c r="D95" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D96" s="4">
-        <v>695</v>
+        <v>119</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2501,10 +2498,10 @@
         <v>136</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" s="6">
-        <v>1457</v>
+        <v>67</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2515,10 +2512,10 @@
         <v>136</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D98" s="4">
-        <v>1182</v>
+        <v>120</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2529,127 +2526,127 @@
         <v>136</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1030</v>
+        <v>68</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1468</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>210</v>
+        <v>121</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="D100" s="4">
-        <v>1468</v>
+        <v>884</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="D101" s="4">
-        <v>884</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D102" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D103" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="D104" s="4">
-        <v>986</v>
+        <v>437</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D105" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D106" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D107" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>136</v>
@@ -2658,26 +2655,26 @@
         <v>74</v>
       </c>
       <c r="D108" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D109" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>141</v>
@@ -2686,12 +2683,12 @@
         <v>77</v>
       </c>
       <c r="D110" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>141</v>
@@ -2700,132 +2697,118 @@
         <v>77</v>
       </c>
       <c r="D111" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="D112" s="4">
-        <v>762</v>
+        <v>878</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113" s="4">
         <v>211</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D113" s="4">
-        <v>878</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D114" s="4">
-        <v>211</v>
+        <v>127</v>
+      </c>
+      <c r="D114" s="6">
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D115" s="6">
-        <v>202</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D116" s="6">
-        <v>2</v>
+        <v>97</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D117" s="4">
-        <v>1418</v>
+        <v>131</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="D118" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="D119" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D120" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2835,7 +2818,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D120">
+  <conditionalFormatting sqref="A2:D119">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DCE475-3CDB-4B15-9622-92CC53CED417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1AB71A-8D8F-481F-AC49-FD5F67B38C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -557,9 +557,6 @@
     <t>MOP - REFIL UMIDO</t>
   </si>
   <si>
-    <t>AGULHA 12X40MM - 100UN</t>
-  </si>
-  <si>
     <t>SACO P/ LIXO C/10UN - 30L</t>
   </si>
   <si>
@@ -693,6 +690,9 @@
   </si>
   <si>
     <t>S110017</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 40X1,20MM</t>
   </si>
 </sst>
 </file>
@@ -1134,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD66"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>137</v>
@@ -1213,7 +1213,7 @@
         <v>92</v>
       </c>
       <c r="D5" s="6">
-        <v>0.5</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1260,13 +1260,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>136</v>
@@ -1414,13 +1414,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D20" s="6">
         <v>1184</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>137</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>137</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>136</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>136</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>136</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="D42" s="6">
         <v>1449</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>136</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>136</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>136</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>136</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>137</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="D59" s="4">
         <v>116</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>136</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>137</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>136</v>
@@ -2086,13 +2086,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2100,13 +2100,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D69" s="4">
         <v>33</v>
@@ -2114,13 +2114,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D70" s="4">
         <v>32</v>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D71" s="4">
         <v>33</v>
@@ -2142,13 +2142,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D72" s="4">
         <v>32</v>
@@ -2156,13 +2156,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D73" s="4">
         <v>31</v>
@@ -2212,13 +2212,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D77" s="4">
         <v>1181</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>136</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>139</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>139</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>136</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>136</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>136</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>136</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>139</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>139</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>136</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>136</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>137</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>136</v>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1AB71A-8D8F-481F-AC49-FD5F67B38C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D3078C-79E7-485A-A950-D3BC1D8F721C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -800,7 +800,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1135,7 +1144,7 @@
   <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1642,7 @@
         <v>107</v>
       </c>
       <c r="D35" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,7 +1656,7 @@
         <v>107</v>
       </c>
       <c r="D36" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,7 +1670,7 @@
         <v>107</v>
       </c>
       <c r="D37" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,7 +1684,7 @@
         <v>107</v>
       </c>
       <c r="D38" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2814,13 +2823,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="45">
+    <cfRule type="expression" dxfId="2" priority="46">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D119">
+  <conditionalFormatting sqref="A2:D34 A39:D119">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:D38">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D3078C-79E7-485A-A950-D3BC1D8F721C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AEE07A-A430-4AE9-B761-23860E1B7C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -404,9 +404,6 @@
     <t>S020118</t>
   </si>
   <si>
-    <t>SABAO EM BARRA - PACOTE C/5</t>
-  </si>
-  <si>
     <t>S010046</t>
   </si>
   <si>
@@ -693,6 +690,9 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 40X1,20MM</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA - 200G - 200G</t>
   </si>
 </sst>
 </file>
@@ -800,16 +800,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1143,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1174,7 +1165,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>84</v>
@@ -1185,13 +1176,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D3" s="6">
         <v>118</v>
@@ -1199,13 +1190,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1213,10 +1204,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>92</v>
@@ -1227,10 +1218,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1244,7 +1235,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>91</v>
@@ -1258,7 +1249,7 @@
         <v>98</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>99</v>
@@ -1269,13 +1260,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1286,7 +1277,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>101</v>
@@ -1300,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -1314,7 +1305,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -1328,7 +1319,7 @@
         <v>103</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1342,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1356,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1370,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1384,7 +1375,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>86</v>
@@ -1398,7 +1389,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1409,10 +1400,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
@@ -1423,13 +1414,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D20" s="6">
         <v>1184</v>
@@ -1440,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
@@ -1454,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>16</v>
@@ -1465,10 +1456,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>16</v>
@@ -1479,24 +1470,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -1510,7 +1501,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>21</v>
@@ -1524,7 +1515,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>94</v>
@@ -1538,7 +1529,7 @@
         <v>104</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>94</v>
@@ -1552,7 +1543,7 @@
         <v>105</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>22</v>
@@ -1566,7 +1557,7 @@
         <v>87</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>22</v>
@@ -1577,13 +1568,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="6">
         <v>874</v>
@@ -1594,7 +1585,7 @@
         <v>106</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>23</v>
@@ -1605,13 +1596,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1622,7 +1613,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>25</v>
@@ -1633,10 +1624,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>107</v>
@@ -1647,10 +1638,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>107</v>
@@ -1661,10 +1652,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>107</v>
@@ -1675,10 +1666,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>107</v>
@@ -1689,10 +1680,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>26</v>
@@ -1706,7 +1697,7 @@
         <v>108</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>109</v>
@@ -1717,10 +1708,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>27</v>
@@ -1731,13 +1722,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="D42" s="6">
         <v>1449</v>
@@ -1745,10 +1736,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>28</v>
@@ -1759,10 +1750,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>29</v>
@@ -1776,7 +1767,7 @@
         <v>30</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>31</v>
@@ -1790,7 +1781,7 @@
         <v>32</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>31</v>
@@ -1804,7 +1795,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>31</v>
@@ -1818,7 +1809,7 @@
         <v>34</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>31</v>
@@ -1829,13 +1820,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="6">
         <v>1456</v>
@@ -1843,13 +1834,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D50" s="4">
         <v>750</v>
@@ -1860,7 +1851,7 @@
         <v>88</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>89</v>
@@ -1874,7 +1865,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>36</v>
@@ -1888,7 +1879,7 @@
         <v>37</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>36</v>
@@ -1899,10 +1890,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>110</v>
@@ -1913,13 +1904,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D55" s="4">
         <v>1157</v>
@@ -1927,10 +1918,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>38</v>
@@ -1944,7 +1935,7 @@
         <v>39</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>40</v>
@@ -1955,10 +1946,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>41</v>
@@ -1969,13 +1960,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D59" s="4">
         <v>116</v>
@@ -1983,10 +1974,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>42</v>
@@ -1997,27 +1988,27 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D62" s="4">
         <v>1164</v>
@@ -2028,7 +2019,7 @@
         <v>43</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>44</v>
@@ -2042,7 +2033,7 @@
         <v>45</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>46</v>
@@ -2053,10 +2044,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>47</v>
@@ -2067,10 +2058,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>48</v>
@@ -2084,7 +2075,7 @@
         <v>49</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>50</v>
@@ -2095,13 +2086,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2109,13 +2100,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D69" s="4">
         <v>33</v>
@@ -2123,13 +2114,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D70" s="4">
         <v>32</v>
@@ -2137,13 +2128,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D71" s="4">
         <v>33</v>
@@ -2151,13 +2142,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D72" s="4">
         <v>32</v>
@@ -2165,13 +2156,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D73" s="4">
         <v>31</v>
@@ -2182,7 +2173,7 @@
         <v>51</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>52</v>
@@ -2196,7 +2187,7 @@
         <v>111</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>52</v>
@@ -2210,7 +2201,7 @@
         <v>112</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>52</v>
@@ -2221,13 +2212,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D77" s="4">
         <v>1181</v>
@@ -2235,13 +2226,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D78" s="6">
         <v>874</v>
@@ -2249,13 +2240,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="D79" s="4">
         <v>1172</v>
@@ -2263,13 +2254,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D80" s="4">
         <v>1173</v>
@@ -2277,13 +2268,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D81" s="4">
         <v>1174</v>
@@ -2294,7 +2285,7 @@
         <v>53</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>54</v>
@@ -2308,7 +2299,7 @@
         <v>113</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>114</v>
@@ -2319,10 +2310,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>55</v>
@@ -2333,10 +2324,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>115</v>
@@ -2350,7 +2341,7 @@
         <v>56</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>57</v>
@@ -2364,7 +2355,7 @@
         <v>58</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>57</v>
@@ -2375,10 +2366,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>59</v>
@@ -2389,10 +2380,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>59</v>
@@ -2406,7 +2397,7 @@
         <v>116</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>60</v>
@@ -2420,7 +2411,7 @@
         <v>61</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>62</v>
@@ -2434,7 +2425,7 @@
         <v>117</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>63</v>
@@ -2448,7 +2439,7 @@
         <v>118</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>63</v>
@@ -2462,7 +2453,7 @@
         <v>66</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>65</v>
@@ -2476,7 +2467,7 @@
         <v>64</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>65</v>
@@ -2487,10 +2478,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>119</v>
@@ -2501,10 +2492,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>67</v>
@@ -2515,10 +2506,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>120</v>
@@ -2529,10 +2520,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>68</v>
@@ -2543,16 +2534,16 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D100" s="4">
-        <v>884</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,7 +2551,7 @@
         <v>69</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>70</v>
@@ -2574,7 +2565,7 @@
         <v>71</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>72</v>
@@ -2585,10 +2576,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>96</v>
@@ -2599,13 +2590,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D104" s="4">
         <v>437</v>
@@ -2613,13 +2604,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D105" s="4">
         <v>449</v>
@@ -2630,7 +2621,7 @@
         <v>73</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>74</v>
@@ -2644,7 +2635,7 @@
         <v>75</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>74</v>
@@ -2658,7 +2649,7 @@
         <v>76</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>74</v>
@@ -2669,10 +2660,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>77</v>
@@ -2686,7 +2677,7 @@
         <v>78</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>77</v>
@@ -2700,7 +2691,7 @@
         <v>79</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>77</v>
@@ -2711,13 +2702,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D112" s="4">
         <v>878</v>
@@ -2728,7 +2719,7 @@
         <v>80</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>81</v>
@@ -2739,13 +2730,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D114" s="6">
         <v>202</v>
@@ -2753,13 +2744,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D115" s="6">
         <v>2</v>
@@ -2767,10 +2758,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>97</v>
@@ -2781,27 +2772,27 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C117" s="4" t="s">
+      <c r="D117" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D118" s="4">
         <v>15</v>
@@ -2809,10 +2800,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>82</v>
@@ -2823,18 +2814,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="46">
+    <cfRule type="expression" dxfId="1" priority="46">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D34 A39:D119">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D119">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:D38">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AEE07A-A430-4AE9-B761-23860E1B7C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E24A96-A394-40D8-B2E9-7C6B4C77C91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$118</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="217">
   <si>
     <t>Complemento</t>
   </si>
@@ -594,9 +594,6 @@
   </si>
   <si>
     <t>S080026</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO - 30MT PC C/4</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
@@ -1132,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1201,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>136</v>
@@ -1400,7 +1397,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>135</v>
@@ -1414,13 +1411,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="D20" s="6">
         <v>1184</v>
@@ -1470,7 +1467,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>136</v>
@@ -1484,7 +1481,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>136</v>
@@ -1568,7 +1565,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>135</v>
@@ -1680,7 +1677,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>135</v>
@@ -1708,7 +1705,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>135</v>
@@ -1722,13 +1719,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="D42" s="6">
         <v>1449</v>
@@ -1750,7 +1747,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>135</v>
@@ -1820,7 +1817,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>135</v>
@@ -1890,7 +1887,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>135</v>
@@ -1904,7 +1901,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>135</v>
@@ -1946,7 +1943,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>136</v>
@@ -1960,13 +1957,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="D59" s="4">
         <v>116</v>
@@ -1974,7 +1971,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>135</v>
@@ -1988,7 +1985,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>136</v>
@@ -2058,7 +2055,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>135</v>
@@ -2226,7 +2223,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>135</v>
@@ -2366,7 +2363,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>138</v>
@@ -2380,49 +2377,49 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D89" s="4">
-        <v>1393</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D90" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D91" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>135</v>
@@ -2431,26 +2428,26 @@
         <v>63</v>
       </c>
       <c r="D92" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D93" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>135</v>
@@ -2459,21 +2456,21 @@
         <v>65</v>
       </c>
       <c r="D94" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D95" s="4">
-        <v>695</v>
+        <v>119</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2484,10 +2481,10 @@
         <v>135</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D96" s="6">
-        <v>1457</v>
+        <v>67</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2498,10 +2495,10 @@
         <v>135</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D97" s="4">
-        <v>1182</v>
+        <v>120</v>
+      </c>
+      <c r="D97" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2512,127 +2509,127 @@
         <v>135</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D98" s="6">
-        <v>1030</v>
+        <v>68</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1468</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="D99" s="4">
-        <v>1468</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D100" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D101" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D102" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D103" s="4">
-        <v>986</v>
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D104" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D105" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D106" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>135</v>
@@ -2641,26 +2638,26 @@
         <v>74</v>
       </c>
       <c r="D107" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D108" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>140</v>
@@ -2669,12 +2666,12 @@
         <v>77</v>
       </c>
       <c r="D109" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>140</v>
@@ -2683,132 +2680,118 @@
         <v>77</v>
       </c>
       <c r="D110" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="D111" s="4">
-        <v>762</v>
+        <v>878</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D112" s="4">
-        <v>878</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D113" s="4">
-        <v>211</v>
+        <v>126</v>
+      </c>
+      <c r="D113" s="6">
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D114" s="6">
-        <v>202</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D115" s="6">
-        <v>2</v>
+        <v>97</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D116" s="4">
-        <v>1418</v>
+        <v>130</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="D117" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D118" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D119" s="4">
         <v>1458</v>
       </c>
     </row>
@@ -2818,7 +2801,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D119">
+  <conditionalFormatting sqref="A2:D118">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E24A96-A394-40D8-B2E9-7C6B4C77C91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACCA4E5-6561-4DAC-B144-B64F413A6FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -1131,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACCA4E5-6561-4DAC-B144-B64F413A6FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D24600-0036-45DE-9816-D41680A42EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$118</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -635,9 +635,6 @@
     <t>FITA DUPLA FACE - 19mm x 3m</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
-  </si>
-  <si>
     <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
   </si>
   <si>
@@ -690,6 +687,9 @@
   </si>
   <si>
     <t>SABAO EM BARRA - 200G - 200G</t>
+  </si>
+  <si>
+    <t>FITILHO EMFESTA - 5MMX50M</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>136</v>
@@ -1719,13 +1719,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D42" s="6">
         <v>1449</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>135</v>
@@ -1910,7 +1910,7 @@
         <v>133</v>
       </c>
       <c r="D55" s="4">
-        <v>1157</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,13 +1957,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="D59" s="4">
         <v>116</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>135</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>136</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>135</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>135</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>135</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>135</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>135</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>135</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>135</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>135</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>135</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>136</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>135</v>

--- a/pages/PI_ssoservi_cservico_csala.xlsx
+++ b/pages/PI_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D24600-0036-45DE-9816-D41680A42EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26CA271-790E-4C51-8520-618E91928B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -293,15 +293,9 @@
     <t>ACUCAR - 1000G</t>
   </si>
   <si>
-    <t>S030001</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
-    <t>S030005</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 50ML - 50ML</t>
   </si>
   <si>
@@ -470,9 +464,6 @@
     <t>ADOÇANTE - 100ML</t>
   </si>
   <si>
-    <t>S030004</t>
-  </si>
-  <si>
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
@@ -690,6 +681,15 @@
   </si>
   <si>
     <t>FITILHO EMFESTA - 5MMX50M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300001 </t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1162,10 +1162,10 @@
         <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1173,13 +1173,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="D3" s="6">
         <v>118</v>
@@ -1187,13 +1187,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1201,13 +1201,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="6">
         <v>1505</v>
@@ -1215,10 +1215,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1243,13 +1243,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1271,13 +1271,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="6">
         <v>122</v>
@@ -1288,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -1313,10 +1313,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1330,7 +1330,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1344,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1358,7 +1358,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1369,16 +1369,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="D17" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
@@ -1411,13 +1411,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D20" s="6">
         <v>1184</v>
@@ -1428,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
@@ -1442,7 +1442,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>16</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>16</v>
@@ -1467,24 +1467,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -1498,7 +1498,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>21</v>
@@ -1509,13 +1509,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="4">
         <v>904</v>
@@ -1523,13 +1523,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D28" s="6">
         <v>903</v>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>22</v>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>22</v>
@@ -1565,13 +1565,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D31" s="6">
         <v>874</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>23</v>
@@ -1593,13 +1593,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1610,7 +1610,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>25</v>
@@ -1621,13 +1621,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="4">
         <v>1175</v>
@@ -1635,13 +1635,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="4">
         <v>1176</v>
@@ -1649,13 +1649,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D37" s="4">
         <v>1177</v>
@@ -1663,13 +1663,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D38" s="4">
         <v>1178</v>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>26</v>
@@ -1691,13 +1691,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D40" s="6">
         <v>12</v>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>27</v>
@@ -1719,13 +1719,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D42" s="6">
         <v>1449</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>28</v>
@@ -1747,10 +1747,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>29</v>
@@ -1764,7 +1764,7 @@
         <v>30</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>31</v>
@@ -1778,7 +1778,7 @@
         <v>32</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>31</v>
@@ -1792,7 +1792,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>31</v>
@@ -1806,7 +1806,7 @@
         <v>34</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>31</v>
@@ -1817,13 +1817,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D49" s="6">
         <v>1456</v>
@@ -1831,13 +1831,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D50" s="4">
         <v>750</v>
@@ -1845,13 +1845,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D51" s="4">
         <v>471</v>
@@ -1862,7 +1862,7 @@
         <v>35</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>36</v>
@@ -1876,7 +1876,7 @@
         <v>37</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>36</v>
@@ -1887,13 +1887,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D54" s="6">
         <v>272</v>
@@ -1901,13 +1901,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D55" s="4">
         <v>1469</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>38</v>
@@ -1932,7 +1932,7 @@
         <v>39</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>40</v>
@@ -1943,10 +1943,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>41</v>
@@ -1957,13 +1957,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D59" s="4">
         <v>116</v>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>42</v>
@@ -1985,27 +1985,27 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D62" s="4">
         <v>1164</v>
@@ -2016,7 +2016,7 @@
         <v>43</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>44</v>
@@ -2030,7 +2030,7 @@
         <v>45</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>46</v>
@@ -2041,10 +2041,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>47</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>48</v>
@@ -2072,7 +2072,7 @@
         <v>49</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>50</v>
@@ -2083,13 +2083,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2097,13 +2097,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D69" s="4">
         <v>33</v>
@@ -2111,13 +2111,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D70" s="4">
         <v>32</v>
@@ -2125,13 +2125,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D71" s="4">
         <v>33</v>
@@ -2139,13 +2139,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D72" s="4">
         <v>32</v>
@@ -2153,13 +2153,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D73" s="4">
         <v>31</v>
@@ -2170,7 +2170,7 @@
         <v>51</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>52</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>52</v>
@@ -2195,10 +2195,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>52</v>
@@ -2209,13 +2209,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D77" s="4">
         <v>1181</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D78" s="6">
         <v>874</v>
@@ -2237,13 +2237,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D79" s="4">
         <v>1172</v>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D80" s="4">
         <v>1173</v>
@@ -2265,13 +2265,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D81" s="4">
         <v>1174</v>
@@ -2282,7 +2282,7 @@
         <v>53</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>54</v>
@@ -2293,13 +2293,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D83" s="6">
         <v>591</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>55</v>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D85" s="4">
         <v>1167</v>
@@ -2338,7 +2338,7 @@
         <v>56</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>57</v>
@@ -2352,7 +2352,7 @@
         <v>58</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>57</v>
@@ -2363,10 +2363,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>59</v>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>60</v>
@@ -2394,7 +2394,7 @@
         <v>61</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>62</v>
@@ -2405,10 +2405,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>63</v>
@@ -2419,10 +2419,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>63</v>
@@ -2436,7 +2436,7 @@
         <v>66</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>65</v>
@@ -2450,7 +2450,7 @@
         <v>64</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>65</v>
@@ -2461,13 +2461,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D95" s="6">
         <v>1457</v>
@@ -2475,10 +2475,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>67</v>
@@ -2489,13 +2489,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D97" s="6">
         <v>1030</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>68</v>
@@ -2517,13 +2517,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D99" s="4">
         <v>51</v>
@@ -2534,7 +2534,7 @@
         <v>69</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>70</v>
@@ -2548,7 +2548,7 @@
         <v>71</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>72</v>
@@ -2559,13 +2559,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D102" s="4">
         <v>986</v>
@@ -2573,13 +2573,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D103" s="4">
         <v>437</v>
@@ -2587,13 +2587,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D104" s="4">
         <v>449</v>
@@ -2604,7 +2604,7 @@
         <v>73</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>74</v>
@@ -2618,7 +2618,7 @@
         <v>75</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>74</v>
@@ -2632,7 +2632,7 @@
         <v>76</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>74</v>
@@ -2643,10 +2643,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>77</v>
@@ -2660,7 +2660,7 @@
         <v>78</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>77</v>
@@ -2674,7 +2674,7 @@
         <v>79</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>77</v>
@@ -2685,13 +2685,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D111" s="4">
         <v>878</v>
@@ -2702,7 +2702,7 @@
         <v>80</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>81</v>
@@ -2713,13 +2713,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D113" s="6">
         <v>202</v>
@@ -2727,13 +2727,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D114" s="6">
         <v>2</v>
@@ -2741,13 +2741,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D115" s="4">
         <v>1418</v>
@@ -2755,27 +2755,27 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D117" s="4">
         <v>15</v>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>82</v>
